--- a/raw_data/metadata.xlsx
+++ b/raw_data/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/active_projects/CPB_Phenotype/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097795A9-F79C-C445-9A2E-6BA632672BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752F2F42-04DF-3745-ACAF-8F5BBE90376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31820" yWindow="840" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1849,8 +1849,8 @@
   </sheetPr>
   <dimension ref="A1:X1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2998,7 +2998,7 @@
         <v>197</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>12</v>
@@ -3072,7 +3072,7 @@
         <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3220,7 +3220,7 @@
         <v>285</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
@@ -3258,7 +3258,7 @@
         <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
@@ -3296,7 +3296,7 @@
         <v>192</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>13</v>
@@ -3410,7 +3410,7 @@
         <v>188</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>12</v>
@@ -3448,7 +3448,7 @@
         <v>472</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>12</v>
@@ -3486,7 +3486,7 @@
         <v>188</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -3520,7 +3520,7 @@
         <v>208</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>13</v>
@@ -3594,7 +3594,7 @@
         <v>285</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>13</v>
@@ -3670,7 +3670,7 @@
         <v>211</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>13</v>
@@ -3708,7 +3708,7 @@
         <v>234</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>12</v>
@@ -3822,7 +3822,7 @@
         <v>208</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>12</v>
@@ -3860,7 +3860,7 @@
         <v>285</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3968,7 +3968,7 @@
         <v>211</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -4040,7 +4040,7 @@
         <v>192</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>13</v>
@@ -4078,7 +4078,7 @@
         <v>234</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>13</v>
@@ -4114,7 +4114,7 @@
         <v>188</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>12</v>
@@ -4152,7 +4152,7 @@
         <v>471</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -4224,7 +4224,7 @@
         <v>472</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -4258,7 +4258,7 @@
         <v>188</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -4406,7 +4406,7 @@
         <v>234</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>12</v>
@@ -4558,7 +4558,7 @@
         <v>472</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -4702,7 +4702,7 @@
         <v>471</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -4884,7 +4884,7 @@
         <v>472</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>12</v>
@@ -4920,7 +4920,7 @@
         <v>472</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -4954,7 +4954,7 @@
         <v>472</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -5102,7 +5102,7 @@
         <v>188</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -5208,7 +5208,7 @@
         <v>285</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -5280,7 +5280,7 @@
         <v>211</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -5352,7 +5352,7 @@
         <v>208</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>13</v>
@@ -5428,7 +5428,7 @@
         <v>211</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>12</v>
@@ -5542,7 +5542,7 @@
         <v>197</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>13</v>
@@ -5654,7 +5654,7 @@
         <v>197</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -5688,7 +5688,7 @@
         <v>197</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>13</v>
@@ -5726,7 +5726,7 @@
         <v>234</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>12</v>
@@ -5764,7 +5764,7 @@
         <v>211</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>13</v>
@@ -5878,7 +5878,7 @@
         <v>192</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>12</v>
@@ -5916,7 +5916,7 @@
         <v>192</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>13</v>
@@ -5954,7 +5954,7 @@
         <v>208</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>12</v>
@@ -5992,7 +5992,7 @@
         <v>197</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -6064,7 +6064,7 @@
         <v>192</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>13</v>
@@ -6102,7 +6102,7 @@
         <v>285</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -6174,7 +6174,7 @@
         <v>234</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>13</v>
@@ -6212,7 +6212,7 @@
         <v>208</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>13</v>
@@ -6364,7 +6364,7 @@
         <v>285</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -6398,7 +6398,7 @@
         <v>208</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>13</v>
@@ -6436,7 +6436,7 @@
         <v>211</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>12</v>
@@ -6546,7 +6546,7 @@
         <v>471</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>13</v>
@@ -6584,7 +6584,7 @@
         <v>192</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
@@ -6618,7 +6618,7 @@
         <v>471</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>12</v>
@@ -6732,7 +6732,7 @@
         <v>188</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>13</v>
@@ -6804,7 +6804,7 @@
         <v>197</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>13</v>
@@ -6842,7 +6842,7 @@
         <v>471</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
@@ -6952,7 +6952,7 @@
         <v>473</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>13</v>
@@ -7028,7 +7028,7 @@
         <v>474</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
@@ -7100,7 +7100,7 @@
         <v>473</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>13</v>
@@ -7176,7 +7176,7 @@
         <v>474</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>12</v>
@@ -7364,7 +7364,7 @@
         <v>473</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
@@ -7398,7 +7398,7 @@
         <v>473</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>13</v>
@@ -7436,7 +7436,7 @@
         <v>474</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>12</v>
@@ -7474,7 +7474,7 @@
         <v>474</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>13</v>
@@ -7548,7 +7548,7 @@
         <v>473</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -7620,7 +7620,7 @@
         <v>474</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>12</v>
@@ -7658,7 +7658,7 @@
         <v>473</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
@@ -7766,7 +7766,7 @@
         <v>474</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
@@ -7838,7 +7838,7 @@
         <v>475</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
@@ -7982,7 +7982,7 @@
         <v>475</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
@@ -8016,7 +8016,7 @@
         <v>475</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>13</v>
@@ -8126,7 +8126,7 @@
         <v>475</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
@@ -8160,7 +8160,7 @@
         <v>475</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
@@ -8194,7 +8194,7 @@
         <v>475</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>

--- a/raw_data/metadata.xlsx
+++ b/raw_data/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/active_projects/CPB_Phenotype/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55769559-9EBC-D848-BE06-4A5000FAE274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD92699-D2A3-1342-B63D-9EAB2150407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4077" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="455">
   <si>
     <t>ind_id</t>
   </si>
@@ -1727,7 +1727,7 @@
   <dimension ref="A1:Y1049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1786,14 +1786,14 @@
     </row>
     <row r="2" spans="1:25" ht="16">
       <c r="A2" s="4" t="str">
-        <f>CONCATENATE(F2,"_",D2,"_",I2)</f>
+        <f t="shared" ref="A2:A25" si="0">CONCATENATE(F2,"_",D2,"_",I2)</f>
         <v>L1_FNDR_M</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C25" si="0">CONCATENATE(F2,"_",D2)</f>
+        <f t="shared" ref="C2:C25" si="1">CONCATENATE(F2,"_",D2)</f>
         <v>L1_FNDR</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1833,14 +1833,14 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3" s="4" t="str">
-        <f>CONCATENATE(F3,"_",D3,"_",I3)</f>
+        <f t="shared" si="0"/>
         <v>L1_FNDR_F</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L1_FNDR</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1880,14 +1880,14 @@
     </row>
     <row r="4" spans="1:25" ht="16">
       <c r="A4" s="4" t="str">
-        <f>CONCATENATE(F4,"_",D4,"_",I4)</f>
+        <f t="shared" si="0"/>
         <v>L2_FNDR_M</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L2_FNDR</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1927,14 +1927,14 @@
     </row>
     <row r="5" spans="1:25" ht="16">
       <c r="A5" s="4" t="str">
-        <f>CONCATENATE(F5,"_",D5,"_",I5)</f>
+        <f t="shared" si="0"/>
         <v>L2_FNDR_F</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L2_FNDR</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1974,14 +1974,14 @@
     </row>
     <row r="6" spans="1:25" ht="16">
       <c r="A6" s="4" t="str">
-        <f>CONCATENATE(F6,"_",D6,"_",I6)</f>
+        <f t="shared" si="0"/>
         <v>L3_FNDR_M</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L3_FNDR</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2021,14 +2021,14 @@
     </row>
     <row r="7" spans="1:25" ht="16">
       <c r="A7" s="4" t="str">
-        <f>CONCATENATE(F7,"_",D7,"_",I7)</f>
+        <f t="shared" si="0"/>
         <v>L3_FNDR_F</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L3_FNDR</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2068,14 +2068,14 @@
     </row>
     <row r="8" spans="1:25" ht="16">
       <c r="A8" s="4" t="str">
-        <f>CONCATENATE(F8,"_",D8,"_",I8)</f>
+        <f t="shared" si="0"/>
         <v>L4_FNDR_M</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L4_FNDR</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2113,14 +2113,14 @@
     </row>
     <row r="9" spans="1:25" ht="16">
       <c r="A9" s="4" t="str">
-        <f>CONCATENATE(F9,"_",D9,"_",I9)</f>
+        <f t="shared" si="0"/>
         <v>L4_FNDR_F</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L4_FNDR</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2158,14 +2158,14 @@
     </row>
     <row r="10" spans="1:25" ht="16">
       <c r="A10" s="4" t="str">
-        <f>CONCATENATE(F10,"_",D10,"_",I10)</f>
+        <f t="shared" si="0"/>
         <v>L5_FNDR_M</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L5_FNDR</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2205,14 +2205,14 @@
     </row>
     <row r="11" spans="1:25" ht="16">
       <c r="A11" s="4" t="str">
-        <f>CONCATENATE(F11,"_",D11,"_",I11)</f>
+        <f t="shared" si="0"/>
         <v>L5_FNDR_F</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L5_FNDR</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2252,14 +2252,14 @@
     </row>
     <row r="12" spans="1:25" ht="16">
       <c r="A12" s="4" t="str">
-        <f>CONCATENATE(F12,"_",D12,"_",I12)</f>
+        <f t="shared" si="0"/>
         <v>L6_FNDR_M</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L6_FNDR</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2299,14 +2299,14 @@
     </row>
     <row r="13" spans="1:25" ht="16">
       <c r="A13" s="4" t="str">
-        <f>CONCATENATE(F13,"_",D13,"_",I13)</f>
+        <f t="shared" si="0"/>
         <v>L6_FNDR_F</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L6_FNDR</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2346,14 +2346,14 @@
     </row>
     <row r="14" spans="1:25" ht="16">
       <c r="A14" s="4" t="str">
-        <f>CONCATENATE(F14,"_",D14,"_",I14)</f>
+        <f t="shared" si="0"/>
         <v>L7_FNDR_M</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L7_FNDR</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2393,14 +2393,14 @@
     </row>
     <row r="15" spans="1:25" ht="16">
       <c r="A15" s="4" t="str">
-        <f>CONCATENATE(F15,"_",D15,"_",I15)</f>
+        <f t="shared" si="0"/>
         <v>L7_FNDR_F</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L7_FNDR</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2440,14 +2440,14 @@
     </row>
     <row r="16" spans="1:25" ht="16">
       <c r="A16" s="4" t="str">
-        <f>CONCATENATE(F16,"_",D16,"_",I16)</f>
+        <f t="shared" si="0"/>
         <v>L8_FNDR_M</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L8_FNDR</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2487,14 +2487,14 @@
     </row>
     <row r="17" spans="1:25" ht="16">
       <c r="A17" s="4" t="str">
-        <f>CONCATENATE(F17,"_",D17,"_",I17)</f>
+        <f t="shared" si="0"/>
         <v>L8_FNDR_F</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L8_FNDR</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2534,14 +2534,14 @@
     </row>
     <row r="18" spans="1:25" ht="16">
       <c r="A18" s="4" t="str">
-        <f>CONCATENATE(F18,"_",D18,"_",I18)</f>
+        <f t="shared" si="0"/>
         <v>L9_FNDR_M</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L9_FNDR</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2579,14 +2579,14 @@
     </row>
     <row r="19" spans="1:25" ht="16">
       <c r="A19" s="4" t="str">
-        <f>CONCATENATE(F19,"_",D19,"_",I19)</f>
+        <f t="shared" si="0"/>
         <v>L9_FNDR_F</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L9_FNDR</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2624,14 +2624,14 @@
     </row>
     <row r="20" spans="1:25" ht="16">
       <c r="A20" s="4" t="str">
-        <f>CONCATENATE(F20,"_",D20,"_",I20)</f>
+        <f t="shared" si="0"/>
         <v>L10_FNDR_M</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L10_FNDR</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2671,14 +2671,14 @@
     </row>
     <row r="21" spans="1:25" ht="16">
       <c r="A21" s="4" t="str">
-        <f>CONCATENATE(F21,"_",D21,"_",I21)</f>
+        <f t="shared" si="0"/>
         <v>L10_FNDR_F</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L10_FNDR</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2718,14 +2718,14 @@
     </row>
     <row r="22" spans="1:25" ht="16">
       <c r="A22" s="4" t="str">
-        <f>CONCATENATE(F22,"_",D22,"_",I22)</f>
+        <f t="shared" si="0"/>
         <v>L11_FNDR_M</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L11_FNDR</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -2765,14 +2765,14 @@
     </row>
     <row r="23" spans="1:25" ht="16">
       <c r="A23" s="4" t="str">
-        <f>CONCATENATE(F23,"_",D23,"_",I23)</f>
+        <f t="shared" si="0"/>
         <v>L11_FNDR_F</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L11_FNDR</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2812,14 +2812,14 @@
     </row>
     <row r="24" spans="1:25" ht="16">
       <c r="A24" s="4" t="str">
-        <f>CONCATENATE(F24,"_",D24,"_",I24)</f>
+        <f t="shared" si="0"/>
         <v>L12_FNDR_M</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L12_FNDR</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2857,14 +2857,14 @@
     </row>
     <row r="25" spans="1:25" ht="16">
       <c r="A25" s="4" t="str">
-        <f>CONCATENATE(F25,"_",D25,"_",I25)</f>
+        <f t="shared" si="0"/>
         <v>L12_FNDR_F</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>L12_FNDR</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2917,7 +2917,7 @@
         <v>28</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f t="shared" ref="H26:H57" si="1">IF(G26="C", "N","R")</f>
+        <f t="shared" ref="H26:H89" si="2">IF(G26="C", "N","R")</f>
         <v>N</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -2956,9 +2956,8 @@
       <c r="G27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H27" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
@@ -2999,7 +2998,7 @@
         <v>28</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -3038,9 +3037,8 @@
       <c r="G29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H29" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -3076,9 +3074,8 @@
       <c r="G30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H30" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>12</v>
@@ -3118,9 +3115,8 @@
       <c r="G31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H31" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>13</v>
@@ -3160,9 +3156,8 @@
       <c r="G32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H32" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>13</v>
@@ -3202,9 +3197,8 @@
       <c r="G33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H33" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
@@ -3244,9 +3238,8 @@
       <c r="G34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H34" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>12</v>
@@ -3286,9 +3279,8 @@
       <c r="G35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H35" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>13</v>
@@ -3328,9 +3320,8 @@
       <c r="G36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H36" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>13</v>
@@ -3370,9 +3361,8 @@
       <c r="G37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H37" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>13</v>
@@ -3412,9 +3402,8 @@
       <c r="G38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H38" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>12</v>
@@ -3454,9 +3443,8 @@
       <c r="G39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H39" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>12</v>
@@ -3496,9 +3484,8 @@
       <c r="G40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H40" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -3534,9 +3521,8 @@
       <c r="G41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H41" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>13</v>
@@ -3574,9 +3560,8 @@
       <c r="G42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H42" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>13</v>
@@ -3616,9 +3601,8 @@
       <c r="G43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H43" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>13</v>
@@ -3658,9 +3642,8 @@
       <c r="G44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H44" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>12</v>
@@ -3700,9 +3683,8 @@
       <c r="G45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H45" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>13</v>
@@ -3742,9 +3724,8 @@
       <c r="G46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H46" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>12</v>
@@ -3784,9 +3765,8 @@
       <c r="G47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H47" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>13</v>
@@ -3826,9 +3806,8 @@
       <c r="G48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H48" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>13</v>
@@ -3868,9 +3847,8 @@
       <c r="G49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H49" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>12</v>
@@ -3910,9 +3888,8 @@
       <c r="G50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H50" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -3948,9 +3925,8 @@
       <c r="G51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H51" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>13</v>
@@ -3990,9 +3966,8 @@
       <c r="G52" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H52" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>12</v>
@@ -4030,9 +4005,8 @@
       <c r="G53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H53" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -4068,9 +4042,8 @@
       <c r="G54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+      <c r="H54" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>12</v>
@@ -4110,9 +4083,8 @@
       <c r="G55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H55" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>13</v>
@@ -4152,9 +4124,8 @@
       <c r="G56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H56" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>13</v>
@@ -4192,9 +4163,8 @@
       <c r="G57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+      <c r="H57" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>12</v>
@@ -4234,9 +4204,8 @@
       <c r="G58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H58" s="3" t="str">
-        <f t="shared" ref="H58:H89" si="2">IF(G58="C", "N","R")</f>
-        <v>R</v>
+      <c r="H58" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -4272,9 +4241,8 @@
       <c r="G59" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H59" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>12</v>
@@ -4314,9 +4282,8 @@
       <c r="G60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H60" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -4352,9 +4319,8 @@
       <c r="G61" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H61" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -4390,9 +4356,8 @@
       <c r="G62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H62" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>13</v>
@@ -4432,9 +4397,8 @@
       <c r="G63" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H63" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>13</v>
@@ -4474,9 +4438,8 @@
       <c r="G64" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H64" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H64" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>12</v>
@@ -4516,9 +4479,8 @@
       <c r="G65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H65" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>12</v>
@@ -4558,9 +4520,8 @@
       <c r="G66" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H66" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H66" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>12</v>
@@ -4600,9 +4561,8 @@
       <c r="G67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H67" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H67" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>13</v>
@@ -4642,9 +4602,8 @@
       <c r="G68" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H68" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>13</v>
@@ -4684,9 +4643,8 @@
       <c r="G69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H69" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H69" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -4722,9 +4680,8 @@
       <c r="G70" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H70" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H70" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>13</v>
@@ -4764,9 +4721,8 @@
       <c r="G71" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H71" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H71" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -4802,9 +4758,8 @@
       <c r="G72" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H72" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H72" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>12</v>
@@ -4844,9 +4799,8 @@
       <c r="G73" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H73" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H73" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -4882,9 +4836,8 @@
       <c r="G74" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H74" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H74" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -4920,9 +4873,8 @@
       <c r="G75" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H75" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H75" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>12</v>
@@ -4962,9 +4914,8 @@
       <c r="G76" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H76" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>13</v>
@@ -5004,9 +4955,8 @@
       <c r="G77" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H77" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H77" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>13</v>
@@ -5046,9 +4996,8 @@
       <c r="G78" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H78" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H78" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>12</v>
@@ -5086,9 +5035,8 @@
       <c r="G79" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H79" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -5124,9 +5072,8 @@
       <c r="G80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H80" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -5162,9 +5109,8 @@
       <c r="G81" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H81" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>12</v>
@@ -5204,9 +5150,8 @@
       <c r="G82" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H82" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>13</v>
@@ -5246,9 +5191,8 @@
       <c r="G83" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H83" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H83" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>12</v>
@@ -5288,9 +5232,8 @@
       <c r="G84" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H84" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H84" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -5326,9 +5269,8 @@
       <c r="G85" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H85" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H85" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>13</v>
@@ -5366,9 +5308,8 @@
       <c r="G86" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H86" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H86" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>12</v>
@@ -5406,9 +5347,8 @@
       <c r="G87" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H87" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H87" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -5444,9 +5384,8 @@
       <c r="G88" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H88" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+      <c r="H88" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>13</v>
@@ -5486,9 +5425,8 @@
       <c r="G89" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H89" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+      <c r="H89" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -5524,9 +5462,8 @@
       <c r="G90" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H90" s="3" t="str">
-        <f t="shared" ref="H90:H121" si="3">IF(G90="C", "N","R")</f>
-        <v>N</v>
+      <c r="H90" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>12</v>
@@ -5566,9 +5503,8 @@
       <c r="G91" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H91" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H91" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>13</v>
@@ -5608,9 +5544,8 @@
       <c r="G92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H92" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H92" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>12</v>
@@ -5650,9 +5585,8 @@
       <c r="G93" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H93" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H93" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>12</v>
@@ -5692,9 +5626,8 @@
       <c r="G94" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H94" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H94" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>13</v>
@@ -5734,9 +5667,8 @@
       <c r="G95" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H95" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H95" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>12</v>
@@ -5776,9 +5708,8 @@
       <c r="G96" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H96" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H96" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>13</v>
@@ -5816,9 +5747,8 @@
       <c r="G97" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H97" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>13</v>
@@ -5858,9 +5788,8 @@
       <c r="G98" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H98" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H98" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>13</v>
@@ -5900,9 +5829,8 @@
       <c r="G99" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H99" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H99" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -5938,9 +5866,8 @@
       <c r="G100" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H100" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H100" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>13</v>
@@ -5980,9 +5907,8 @@
       <c r="G101" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H101" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H101" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>12</v>
@@ -6022,9 +5948,8 @@
       <c r="G102" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H102" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H102" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>13</v>
@@ -6064,9 +5989,8 @@
       <c r="G103" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H103" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H103" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>12</v>
@@ -6106,9 +6030,8 @@
       <c r="G104" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H104" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H104" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>13</v>
@@ -6148,9 +6071,8 @@
       <c r="G105" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H105" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H105" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>12</v>
@@ -6190,9 +6112,8 @@
       <c r="G106" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H106" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H106" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>13</v>
@@ -6232,9 +6153,8 @@
       <c r="G107" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H107" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H107" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>12</v>
@@ -6274,9 +6194,8 @@
       <c r="G108" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H108" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H108" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -6312,9 +6231,8 @@
       <c r="G109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H109" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H109" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>12</v>
@@ -6354,9 +6272,8 @@
       <c r="G110" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H110" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H110" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>13</v>
@@ -6396,9 +6313,8 @@
       <c r="G111" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H111" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H111" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -6434,9 +6350,8 @@
       <c r="G112" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H112" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H112" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>13</v>
@@ -6476,9 +6391,8 @@
       <c r="G113" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H113" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H113" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>13</v>
@@ -6518,9 +6432,8 @@
       <c r="G114" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H114" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H114" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>13</v>
@@ -6560,9 +6473,8 @@
       <c r="G115" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H115" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H115" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>13</v>
@@ -6602,9 +6514,8 @@
       <c r="G116" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H116" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H116" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>13</v>
@@ -6644,9 +6555,8 @@
       <c r="G117" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H117" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H117" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>12</v>
@@ -6686,9 +6596,8 @@
       <c r="G118" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H118" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H118" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -6724,9 +6633,8 @@
       <c r="G119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H119" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H119" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>13</v>
@@ -6766,9 +6674,8 @@
       <c r="G120" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H120" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+      <c r="H120" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>12</v>
@@ -6808,9 +6715,8 @@
       <c r="G121" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H121" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+      <c r="H121" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>12</v>
@@ -6850,9 +6756,8 @@
       <c r="G122" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="3" t="str">
-        <f t="shared" ref="H122:H153" si="4">IF(G122="C", "N","R")</f>
-        <v>N</v>
+      <c r="H122" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -6888,9 +6793,8 @@
       <c r="G123" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H123" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H123" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>13</v>
@@ -6930,9 +6834,8 @@
       <c r="G124" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H124" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H124" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -6968,9 +6871,8 @@
       <c r="G125" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H125" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H125" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>12</v>
@@ -7010,9 +6912,8 @@
       <c r="G126" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H126" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H126" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>13</v>
@@ -7052,9 +6953,8 @@
       <c r="G127" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H127" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H127" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>13</v>
@@ -7094,9 +6994,8 @@
       <c r="G128" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H128" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H128" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>13</v>
@@ -7136,9 +7035,8 @@
       <c r="G129" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H129" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H129" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -7174,9 +7072,8 @@
       <c r="G130" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H130" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H130" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>13</v>
@@ -7216,9 +7113,8 @@
       <c r="G131" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H131" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H131" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -7254,9 +7150,8 @@
       <c r="G132" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H132" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H132" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>12</v>
@@ -7296,9 +7191,8 @@
       <c r="G133" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H133" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H133" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>12</v>
@@ -7338,9 +7232,8 @@
       <c r="G134" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H134" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H134" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>13</v>
@@ -7380,9 +7273,8 @@
       <c r="G135" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H135" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H135" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>13</v>
@@ -7422,9 +7314,8 @@
       <c r="G136" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H136" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H136" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -7460,9 +7351,8 @@
       <c r="G137" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H137" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H137" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>12</v>
@@ -7502,9 +7392,8 @@
       <c r="G138" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H138" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H138" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>13</v>
@@ -7544,9 +7433,8 @@
       <c r="G139" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H139" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H139" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>13</v>
@@ -7586,9 +7474,8 @@
       <c r="G140" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H140" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H140" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>12</v>
@@ -7628,9 +7515,8 @@
       <c r="G141" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H141" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H141" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>12</v>
@@ -7670,9 +7556,8 @@
       <c r="G142" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H142" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H142" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>13</v>
@@ -7712,9 +7597,8 @@
       <c r="G143" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H143" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H143" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>12</v>
@@ -7754,9 +7638,8 @@
       <c r="G144" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H144" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H144" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>12</v>
@@ -7794,9 +7677,8 @@
       <c r="G145" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H145" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H145" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -7832,9 +7714,8 @@
       <c r="G146" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H146" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H146" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>13</v>
@@ -7874,9 +7755,8 @@
       <c r="G147" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H147" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H147" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>12</v>
@@ -7916,9 +7796,8 @@
       <c r="G148" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H148" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H148" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>13</v>
@@ -7958,9 +7837,8 @@
       <c r="G149" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H149" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H149" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>12</v>
@@ -7998,9 +7876,8 @@
       <c r="G150" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H150" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H150" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -8036,9 +7913,8 @@
       <c r="G151" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H151" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>N</v>
+      <c r="H151" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>12</v>
@@ -8078,9 +7954,8 @@
       <c r="G152" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H152" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H152" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>12</v>
@@ -8120,9 +7995,8 @@
       <c r="G153" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H153" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>R</v>
+      <c r="H153" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -8158,9 +8032,8 @@
       <c r="G154" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H154" s="3" t="str">
-        <f t="shared" ref="H154:H169" si="5">IF(G154="C", "N","R")</f>
-        <v>N</v>
+      <c r="H154" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>12</v>
@@ -8200,9 +8073,8 @@
       <c r="G155" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H155" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>N</v>
+      <c r="H155" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>12</v>
@@ -8240,9 +8112,8 @@
       <c r="G156" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H156" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+      <c r="H156" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -8278,9 +8149,8 @@
       <c r="G157" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H157" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>N</v>
+      <c r="H157" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>13</v>
@@ -8320,9 +8190,8 @@
       <c r="G158" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H158" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+      <c r="H158" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -8358,9 +8227,8 @@
       <c r="G159" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H159" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>N</v>
+      <c r="H159" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>12</v>
@@ -8398,9 +8266,8 @@
       <c r="G160" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H160" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>N</v>
+      <c r="H160" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>12</v>
@@ -8438,9 +8305,8 @@
       <c r="G161" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H161" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>N</v>
+      <c r="H161" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I161" s="3" t="s">
         <v>13</v>
@@ -8480,9 +8346,8 @@
       <c r="G162" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H162" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+      <c r="H162" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -8518,9 +8383,8 @@
       <c r="G163" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H163" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+      <c r="H163" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>13</v>
@@ -8560,9 +8424,8 @@
       <c r="G164" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H164" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>N</v>
+      <c r="H164" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>12</v>
@@ -8600,9 +8463,8 @@
       <c r="G165" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H165" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>N</v>
+      <c r="H165" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>12</v>
@@ -8640,9 +8502,8 @@
       <c r="G166" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H166" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+      <c r="H166" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -8678,9 +8539,8 @@
       <c r="G167" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H167" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+      <c r="H167" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -8716,9 +8576,8 @@
       <c r="G168" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H168" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>R</v>
+      <c r="H168" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -8754,9 +8613,8 @@
       <c r="G169" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H169" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>N</v>
+      <c r="H169" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -8778,7 +8636,7 @@
     </row>
     <row r="170" spans="1:25" ht="16">
       <c r="A170" s="4" t="str">
-        <f t="shared" ref="A170:A193" si="6">CONCATENATE(F170,"_",E170,"_",G170,"_","A")</f>
+        <f t="shared" ref="A170:A193" si="3">CONCATENATE(F170,"_",E170,"_",G170,"_","A")</f>
         <v>L1_F0_C_A</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -8813,7 +8671,7 @@
     </row>
     <row r="171" spans="1:25" ht="16">
       <c r="A171" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L1_F0_E_A</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -8848,7 +8706,7 @@
     </row>
     <row r="172" spans="1:25" ht="16">
       <c r="A172" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L2_F0_C_A</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -8883,7 +8741,7 @@
     </row>
     <row r="173" spans="1:25" ht="16">
       <c r="A173" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L2_F0_E_A</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -8918,7 +8776,7 @@
     </row>
     <row r="174" spans="1:25" ht="16">
       <c r="A174" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L3_F0_C_A</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -8953,7 +8811,7 @@
     </row>
     <row r="175" spans="1:25" ht="16">
       <c r="A175" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L3_F0_E_A</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -8988,7 +8846,7 @@
     </row>
     <row r="176" spans="1:25" ht="16">
       <c r="A176" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L4_F0_C_A</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -9023,7 +8881,7 @@
     </row>
     <row r="177" spans="1:25" ht="16">
       <c r="A177" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L4_F0_E_A</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -9058,7 +8916,7 @@
     </row>
     <row r="178" spans="1:25" ht="16">
       <c r="A178" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L5_F0_C_A</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -9093,7 +8951,7 @@
     </row>
     <row r="179" spans="1:25" ht="16">
       <c r="A179" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L5_F0_E_A</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -9128,7 +8986,7 @@
     </row>
     <row r="180" spans="1:25" ht="16">
       <c r="A180" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L6_F0_C_A</v>
       </c>
       <c r="B180" s="4" t="s">
@@ -9163,7 +9021,7 @@
     </row>
     <row r="181" spans="1:25" ht="16">
       <c r="A181" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L6_F0_E_A</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -9198,7 +9056,7 @@
     </row>
     <row r="182" spans="1:25" ht="16">
       <c r="A182" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L7_F0_C_A</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -9233,7 +9091,7 @@
     </row>
     <row r="183" spans="1:25" ht="16">
       <c r="A183" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L7_F0_E_A</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -9268,7 +9126,7 @@
     </row>
     <row r="184" spans="1:25" ht="16">
       <c r="A184" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L8_F0_C_A</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -9303,7 +9161,7 @@
     </row>
     <row r="185" spans="1:25" ht="16">
       <c r="A185" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L8_F0_E_A</v>
       </c>
       <c r="B185" s="4" t="s">
@@ -9338,7 +9196,7 @@
     </row>
     <row r="186" spans="1:25" ht="16">
       <c r="A186" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L9_F0_C_A</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -9373,7 +9231,7 @@
     </row>
     <row r="187" spans="1:25" ht="16">
       <c r="A187" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L9_F0_E_A</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -9408,7 +9266,7 @@
     </row>
     <row r="188" spans="1:25" ht="16">
       <c r="A188" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L10_F0_C_A</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -9443,7 +9301,7 @@
     </row>
     <row r="189" spans="1:25" ht="16">
       <c r="A189" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L10_F0_E_A</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -9478,7 +9336,7 @@
     </row>
     <row r="190" spans="1:25" ht="16">
       <c r="A190" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L11_F0_C_A</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -9513,7 +9371,7 @@
     </row>
     <row r="191" spans="1:25" ht="16">
       <c r="A191" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L11_F0_E_A</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -9548,7 +9406,7 @@
     </row>
     <row r="192" spans="1:25" ht="16">
       <c r="A192" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L12_F0_C_A</v>
       </c>
       <c r="B192" s="4" t="s">
@@ -9583,7 +9441,7 @@
     </row>
     <row r="193" spans="1:25" ht="16">
       <c r="A193" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>L12_F0_E_A</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -9618,14 +9476,14 @@
     </row>
     <row r="194" spans="1:25" ht="16">
       <c r="A194" s="4" t="str">
-        <f>CONCATENATE(F194,"_",D194,"_",G194,"_",I194)</f>
+        <f t="shared" ref="A194:A241" si="4">CONCATENATE(F194,"_",D194,"_",G194,"_",I194)</f>
         <v>L1_F0_C_M</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C194" s="4" t="str">
-        <f t="shared" ref="C194:C241" si="7">CONCATENATE(F194,"_",D194,"_",G194)</f>
+        <f t="shared" ref="C194:C241" si="5">CONCATENATE(F194,"_",D194,"_",G194)</f>
         <v>L1_F0_C</v>
       </c>
       <c r="D194" s="4" t="s">
@@ -9662,14 +9520,14 @@
     </row>
     <row r="195" spans="1:25" ht="16">
       <c r="A195" s="4" t="str">
-        <f>CONCATENATE(F195,"_",D195,"_",G195,"_",I195)</f>
+        <f t="shared" si="4"/>
         <v>L1_F0_C_F</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C195" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L1_F0_C</v>
       </c>
       <c r="D195" s="4" t="s">
@@ -9706,14 +9564,14 @@
     </row>
     <row r="196" spans="1:25" ht="16">
       <c r="A196" s="4" t="str">
-        <f>CONCATENATE(F196,"_",D196,"_",G196,"_",I196)</f>
+        <f t="shared" si="4"/>
         <v>L1_F0_E_M</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C196" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L1_F0_E</v>
       </c>
       <c r="D196" s="4" t="s">
@@ -9750,14 +9608,14 @@
     </row>
     <row r="197" spans="1:25" ht="16">
       <c r="A197" s="4" t="str">
-        <f>CONCATENATE(F197,"_",D197,"_",G197,"_",I197)</f>
+        <f t="shared" si="4"/>
         <v>L1_F0_E_F</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C197" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L1_F0_E</v>
       </c>
       <c r="D197" s="4" t="s">
@@ -9794,14 +9652,14 @@
     </row>
     <row r="198" spans="1:25" ht="17.25" customHeight="1">
       <c r="A198" s="4" t="str">
-        <f>CONCATENATE(F198,"_",D198,"_",G198,"_",I198)</f>
+        <f t="shared" si="4"/>
         <v>L2_F0_C_M</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C198" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L2_F0_C</v>
       </c>
       <c r="D198" s="4" t="s">
@@ -9838,14 +9696,14 @@
     </row>
     <row r="199" spans="1:25" ht="16">
       <c r="A199" s="4" t="str">
-        <f>CONCATENATE(F199,"_",D199,"_",G199,"_",I199)</f>
+        <f t="shared" si="4"/>
         <v>L2_F0_C_F</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C199" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L2_F0_C</v>
       </c>
       <c r="D199" s="4" t="s">
@@ -9882,14 +9740,14 @@
     </row>
     <row r="200" spans="1:25" ht="16">
       <c r="A200" s="4" t="str">
-        <f>CONCATENATE(F200,"_",D200,"_",G200,"_",I200)</f>
+        <f t="shared" si="4"/>
         <v>L2_F0_E_M</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C200" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L2_F0_E</v>
       </c>
       <c r="D200" s="4" t="s">
@@ -9926,14 +9784,14 @@
     </row>
     <row r="201" spans="1:25" ht="16">
       <c r="A201" s="4" t="str">
-        <f>CONCATENATE(F201,"_",D201,"_",G201,"_",I201)</f>
+        <f t="shared" si="4"/>
         <v>L2_F0_E_F</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C201" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L2_F0_E</v>
       </c>
       <c r="D201" s="4" t="s">
@@ -9970,14 +9828,14 @@
     </row>
     <row r="202" spans="1:25" ht="16">
       <c r="A202" s="4" t="str">
-        <f>CONCATENATE(F202,"_",D202,"_",G202,"_",I202)</f>
+        <f t="shared" si="4"/>
         <v>L3_F0_C_M</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C202" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L3_F0_C</v>
       </c>
       <c r="D202" s="4" t="s">
@@ -10014,14 +9872,14 @@
     </row>
     <row r="203" spans="1:25" ht="16">
       <c r="A203" s="4" t="str">
-        <f>CONCATENATE(F203,"_",D203,"_",G203,"_",I203)</f>
+        <f t="shared" si="4"/>
         <v>L3_F0_C_F</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C203" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L3_F0_C</v>
       </c>
       <c r="D203" s="4" t="s">
@@ -10058,14 +9916,14 @@
     </row>
     <row r="204" spans="1:25" ht="16">
       <c r="A204" s="4" t="str">
-        <f>CONCATENATE(F204,"_",D204,"_",G204,"_",I204)</f>
+        <f t="shared" si="4"/>
         <v>L3_F0_E_M</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C204" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L3_F0_E</v>
       </c>
       <c r="D204" s="4" t="s">
@@ -10102,14 +9960,14 @@
     </row>
     <row r="205" spans="1:25" ht="16">
       <c r="A205" s="4" t="str">
-        <f>CONCATENATE(F205,"_",D205,"_",G205,"_",I205)</f>
+        <f t="shared" si="4"/>
         <v>L3_F0_E_F</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C205" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L3_F0_E</v>
       </c>
       <c r="D205" s="4" t="s">
@@ -10146,14 +10004,14 @@
     </row>
     <row r="206" spans="1:25" ht="16">
       <c r="A206" s="4" t="str">
-        <f>CONCATENATE(F206,"_",D206,"_",G206,"_",I206)</f>
+        <f t="shared" si="4"/>
         <v>L4_F0_C_M</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C206" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L4_F0_C</v>
       </c>
       <c r="D206" s="4" t="s">
@@ -10190,14 +10048,14 @@
     </row>
     <row r="207" spans="1:25" ht="16">
       <c r="A207" s="4" t="str">
-        <f>CONCATENATE(F207,"_",D207,"_",G207,"_",I207)</f>
+        <f t="shared" si="4"/>
         <v>L4_F0_C_F</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L4_F0_C</v>
       </c>
       <c r="D207" s="4" t="s">
@@ -10234,14 +10092,14 @@
     </row>
     <row r="208" spans="1:25" ht="16">
       <c r="A208" s="4" t="str">
-        <f>CONCATENATE(F208,"_",D208,"_",G208,"_",I208)</f>
+        <f t="shared" si="4"/>
         <v>L4_F0_E_M</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C208" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L4_F0_E</v>
       </c>
       <c r="D208" s="4" t="s">
@@ -10276,14 +10134,14 @@
     </row>
     <row r="209" spans="1:25" ht="16">
       <c r="A209" s="4" t="str">
-        <f>CONCATENATE(F209,"_",D209,"_",G209,"_",I209)</f>
+        <f t="shared" si="4"/>
         <v>L4_F0_E_F</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C209" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L4_F0_E</v>
       </c>
       <c r="D209" s="4" t="s">
@@ -10318,14 +10176,14 @@
     </row>
     <row r="210" spans="1:25" ht="16">
       <c r="A210" s="4" t="str">
-        <f>CONCATENATE(F210,"_",D210,"_",G210,"_",I210)</f>
+        <f t="shared" si="4"/>
         <v>L5_F0_C_M</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C210" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L5_F0_C</v>
       </c>
       <c r="D210" s="4" t="s">
@@ -10362,14 +10220,14 @@
     </row>
     <row r="211" spans="1:25" ht="16">
       <c r="A211" s="4" t="str">
-        <f>CONCATENATE(F211,"_",D211,"_",G211,"_",I211)</f>
+        <f t="shared" si="4"/>
         <v>L5_F0_C_F</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C211" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L5_F0_C</v>
       </c>
       <c r="D211" s="4" t="s">
@@ -10406,14 +10264,14 @@
     </row>
     <row r="212" spans="1:25" ht="16">
       <c r="A212" s="4" t="str">
-        <f>CONCATENATE(F212,"_",D212,"_",G212,"_",I212)</f>
+        <f t="shared" si="4"/>
         <v>L5_F0_E_M</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C212" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L5_F0_E</v>
       </c>
       <c r="D212" s="4" t="s">
@@ -10450,14 +10308,14 @@
     </row>
     <row r="213" spans="1:25" ht="16">
       <c r="A213" s="4" t="str">
-        <f>CONCATENATE(F213,"_",D213,"_",G213,"_",I213)</f>
+        <f t="shared" si="4"/>
         <v>L5_F0_E_F</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C213" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L5_F0_E</v>
       </c>
       <c r="D213" s="4" t="s">
@@ -10494,14 +10352,14 @@
     </row>
     <row r="214" spans="1:25" ht="16">
       <c r="A214" s="4" t="str">
-        <f>CONCATENATE(F214,"_",D214,"_",G214,"_",I214)</f>
+        <f t="shared" si="4"/>
         <v>L6_F0_C_M</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C214" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L6_F0_C</v>
       </c>
       <c r="D214" s="4" t="s">
@@ -10538,14 +10396,14 @@
     </row>
     <row r="215" spans="1:25" ht="16">
       <c r="A215" s="4" t="str">
-        <f>CONCATENATE(F215,"_",D215,"_",G215,"_",I215)</f>
+        <f t="shared" si="4"/>
         <v>L6_F0_C_F</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C215" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L6_F0_C</v>
       </c>
       <c r="D215" s="4" t="s">
@@ -10582,14 +10440,14 @@
     </row>
     <row r="216" spans="1:25" ht="16">
       <c r="A216" s="4" t="str">
-        <f>CONCATENATE(F216,"_",D216,"_",G216,"_",I216)</f>
+        <f t="shared" si="4"/>
         <v>L6_F0_E_M</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C216" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L6_F0_E</v>
       </c>
       <c r="D216" s="4" t="s">
@@ -10626,14 +10484,14 @@
     </row>
     <row r="217" spans="1:25" ht="16">
       <c r="A217" s="4" t="str">
-        <f>CONCATENATE(F217,"_",D217,"_",G217,"_",I217)</f>
+        <f t="shared" si="4"/>
         <v>L6_F0_E_F</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C217" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L6_F0_E</v>
       </c>
       <c r="D217" s="4" t="s">
@@ -10670,14 +10528,14 @@
     </row>
     <row r="218" spans="1:25" ht="16">
       <c r="A218" s="4" t="str">
-        <f>CONCATENATE(F218,"_",D218,"_",G218,"_",I218)</f>
+        <f t="shared" si="4"/>
         <v>L7_F0_C_M</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C218" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L7_F0_C</v>
       </c>
       <c r="D218" s="4" t="s">
@@ -10714,14 +10572,14 @@
     </row>
     <row r="219" spans="1:25" ht="16">
       <c r="A219" s="4" t="str">
-        <f>CONCATENATE(F219,"_",D219,"_",G219,"_",I219)</f>
+        <f t="shared" si="4"/>
         <v>L7_F0_C_F</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C219" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L7_F0_C</v>
       </c>
       <c r="D219" s="4" t="s">
@@ -10758,14 +10616,14 @@
     </row>
     <row r="220" spans="1:25" ht="16">
       <c r="A220" s="4" t="str">
-        <f>CONCATENATE(F220,"_",D220,"_",G220,"_",I220)</f>
+        <f t="shared" si="4"/>
         <v>L7_F0_E_M</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C220" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L7_F0_E</v>
       </c>
       <c r="D220" s="4" t="s">
@@ -10800,14 +10658,14 @@
     </row>
     <row r="221" spans="1:25" ht="16">
       <c r="A221" s="4" t="str">
-        <f>CONCATENATE(F221,"_",D221,"_",G221,"_",I221)</f>
+        <f t="shared" si="4"/>
         <v>L7_F0_E_F</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C221" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L7_F0_E</v>
       </c>
       <c r="D221" s="4" t="s">
@@ -10842,14 +10700,14 @@
     </row>
     <row r="222" spans="1:25" ht="16">
       <c r="A222" s="4" t="str">
-        <f>CONCATENATE(F222,"_",D222,"_",G222,"_",I222)</f>
+        <f t="shared" si="4"/>
         <v>L8_F0_C_M</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C222" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L8_F0_C</v>
       </c>
       <c r="D222" s="4" t="s">
@@ -10886,14 +10744,14 @@
     </row>
     <row r="223" spans="1:25" ht="16">
       <c r="A223" s="4" t="str">
-        <f>CONCATENATE(F223,"_",D223,"_",G223,"_",I223)</f>
+        <f t="shared" si="4"/>
         <v>L8_F0_C_F</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C223" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L8_F0_C</v>
       </c>
       <c r="D223" s="4" t="s">
@@ -10930,14 +10788,14 @@
     </row>
     <row r="224" spans="1:25" ht="16">
       <c r="A224" s="4" t="str">
-        <f>CONCATENATE(F224,"_",D224,"_",G224,"_",I224)</f>
+        <f t="shared" si="4"/>
         <v>L8_F0_E_M</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C224" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L8_F0_E</v>
       </c>
       <c r="D224" s="4" t="s">
@@ -10974,14 +10832,14 @@
     </row>
     <row r="225" spans="1:25" ht="16">
       <c r="A225" s="4" t="str">
-        <f>CONCATENATE(F225,"_",D225,"_",G225,"_",I225)</f>
+        <f t="shared" si="4"/>
         <v>L8_F0_E_F</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C225" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L8_F0_E</v>
       </c>
       <c r="D225" s="4" t="s">
@@ -11018,14 +10876,14 @@
     </row>
     <row r="226" spans="1:25" ht="16">
       <c r="A226" s="4" t="str">
-        <f>CONCATENATE(F226,"_",D226,"_",G226,"_",I226)</f>
+        <f t="shared" si="4"/>
         <v>L9_F0_C_M</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C226" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L9_F0_C</v>
       </c>
       <c r="D226" s="4" t="s">
@@ -11060,14 +10918,14 @@
     </row>
     <row r="227" spans="1:25" ht="16">
       <c r="A227" s="4" t="str">
-        <f>CONCATENATE(F227,"_",D227,"_",G227,"_",I227)</f>
+        <f t="shared" si="4"/>
         <v>L9_F0_C_F</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C227" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L9_F0_C</v>
       </c>
       <c r="D227" s="4" t="s">
@@ -11102,14 +10960,14 @@
     </row>
     <row r="228" spans="1:25" ht="16">
       <c r="A228" s="4" t="str">
-        <f>CONCATENATE(F228,"_",D228,"_",G228,"_",I228)</f>
+        <f t="shared" si="4"/>
         <v>L9_F0_E_M</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C228" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L9_F0_E</v>
       </c>
       <c r="D228" s="4" t="s">
@@ -11144,14 +11002,14 @@
     </row>
     <row r="229" spans="1:25" ht="16">
       <c r="A229" s="4" t="str">
-        <f>CONCATENATE(F229,"_",D229,"_",G229,"_",I229)</f>
+        <f t="shared" si="4"/>
         <v>L9_F0_E_F</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C229" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L9_F0_E</v>
       </c>
       <c r="D229" s="4" t="s">
@@ -11186,14 +11044,14 @@
     </row>
     <row r="230" spans="1:25" ht="16">
       <c r="A230" s="4" t="str">
-        <f>CONCATENATE(F230,"_",D230,"_",G230,"_",I230)</f>
+        <f t="shared" si="4"/>
         <v>L10_F0_C_M</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C230" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L10_F0_C</v>
       </c>
       <c r="D230" s="4" t="s">
@@ -11230,14 +11088,14 @@
     </row>
     <row r="231" spans="1:25" ht="16">
       <c r="A231" s="4" t="str">
-        <f>CONCATENATE(F231,"_",D231,"_",G231,"_",I231)</f>
+        <f t="shared" si="4"/>
         <v>L10_F0_C_F</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C231" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L10_F0_C</v>
       </c>
       <c r="D231" s="4" t="s">
@@ -11274,14 +11132,14 @@
     </row>
     <row r="232" spans="1:25" ht="16">
       <c r="A232" s="4" t="str">
-        <f>CONCATENATE(F232,"_",D232,"_",G232,"_",I232)</f>
+        <f t="shared" si="4"/>
         <v>L10_F0_E_M</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C232" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L10_F0_E</v>
       </c>
       <c r="D232" s="4" t="s">
@@ -11318,14 +11176,14 @@
     </row>
     <row r="233" spans="1:25" ht="16">
       <c r="A233" s="4" t="str">
-        <f>CONCATENATE(F233,"_",D233,"_",G233,"_",I233)</f>
+        <f t="shared" si="4"/>
         <v>L10_F0_E_F</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C233" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L10_F0_E</v>
       </c>
       <c r="D233" s="4" t="s">
@@ -11362,14 +11220,14 @@
     </row>
     <row r="234" spans="1:25" ht="16">
       <c r="A234" s="4" t="str">
-        <f>CONCATENATE(F234,"_",D234,"_",G234,"_",I234)</f>
+        <f t="shared" si="4"/>
         <v>L11_F0_C_M</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C234" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L11_F0_C</v>
       </c>
       <c r="D234" s="4" t="s">
@@ -11406,14 +11264,14 @@
     </row>
     <row r="235" spans="1:25" ht="18" customHeight="1">
       <c r="A235" s="4" t="str">
-        <f>CONCATENATE(F235,"_",D235,"_",G235,"_",I235)</f>
+        <f t="shared" si="4"/>
         <v>L11_F0_C_F</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C235" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L11_F0_C</v>
       </c>
       <c r="D235" s="4" t="s">
@@ -11450,14 +11308,14 @@
     </row>
     <row r="236" spans="1:25" ht="16">
       <c r="A236" s="4" t="str">
-        <f>CONCATENATE(F236,"_",D236,"_",G236,"_",I236)</f>
+        <f t="shared" si="4"/>
         <v>L11_F0_E_M</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C236" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L11_F0_E</v>
       </c>
       <c r="D236" s="4" t="s">
@@ -11492,14 +11350,14 @@
     </row>
     <row r="237" spans="1:25" ht="19.5" customHeight="1">
       <c r="A237" s="4" t="str">
-        <f>CONCATENATE(F237,"_",D237,"_",G237,"_",I237)</f>
+        <f t="shared" si="4"/>
         <v>L11_F0_E_F</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C237" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L11_F0_E</v>
       </c>
       <c r="D237" s="4" t="s">
@@ -11534,14 +11392,14 @@
     </row>
     <row r="238" spans="1:25" ht="16">
       <c r="A238" s="4" t="str">
-        <f>CONCATENATE(F238,"_",D238,"_",G238,"_",I238)</f>
+        <f t="shared" si="4"/>
         <v>L12_F0_C_M</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C238" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L12_F0_C</v>
       </c>
       <c r="D238" s="4" t="s">
@@ -11576,14 +11434,14 @@
     </row>
     <row r="239" spans="1:25" ht="16">
       <c r="A239" s="4" t="str">
-        <f>CONCATENATE(F239,"_",D239,"_",G239,"_",I239)</f>
+        <f t="shared" si="4"/>
         <v>L12_F0_C_F</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C239" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L12_F0_C</v>
       </c>
       <c r="D239" s="4" t="s">
@@ -11618,14 +11476,14 @@
     </row>
     <row r="240" spans="1:25" ht="16">
       <c r="A240" s="4" t="str">
-        <f>CONCATENATE(F240,"_",D240,"_",G240,"_",I240)</f>
+        <f t="shared" si="4"/>
         <v>L12_F0_E_M</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L12_F0_E</v>
       </c>
       <c r="D240" s="4" t="s">
@@ -11660,14 +11518,14 @@
     </row>
     <row r="241" spans="1:25" ht="16">
       <c r="A241" s="4" t="str">
-        <f>CONCATENATE(F241,"_",D241,"_",G241,"_",I241)</f>
+        <f t="shared" si="4"/>
         <v>L12_F0_E_F</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C241" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>L12_F0_E</v>
       </c>
       <c r="D241" s="4" t="s">
@@ -11702,7 +11560,7 @@
     </row>
     <row r="242" spans="1:25" ht="16">
       <c r="A242" s="4" t="str">
-        <f t="shared" ref="A242:A259" si="8">CONCATENATE(F242,"_",E242,"_",G242,"_","A")</f>
+        <f t="shared" ref="A242:A259" si="6">CONCATENATE(F242,"_",E242,"_",G242,"_","A")</f>
         <v>L1_F1_C_A</v>
       </c>
       <c r="B242" s="4" t="s">
@@ -11737,7 +11595,7 @@
     </row>
     <row r="243" spans="1:25" ht="16">
       <c r="A243" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L1_F1_E_A</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -11772,7 +11630,7 @@
     </row>
     <row r="244" spans="1:25" ht="16">
       <c r="A244" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L2_F1_C_A</v>
       </c>
       <c r="B244" s="4" t="s">
@@ -11807,7 +11665,7 @@
     </row>
     <row r="245" spans="1:25" ht="16">
       <c r="A245" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L2_F1_E_A</v>
       </c>
       <c r="B245" s="4" t="s">
@@ -11842,7 +11700,7 @@
     </row>
     <row r="246" spans="1:25" ht="16">
       <c r="A246" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L3_F1_C_A</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -11877,7 +11735,7 @@
     </row>
     <row r="247" spans="1:25" ht="16">
       <c r="A247" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L3_F1_E_A</v>
       </c>
       <c r="B247" s="4" t="s">
@@ -11912,7 +11770,7 @@
     </row>
     <row r="248" spans="1:25" ht="16">
       <c r="A248" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L4_F1_C_A</v>
       </c>
       <c r="B248" s="4" t="s">
@@ -11947,7 +11805,7 @@
     </row>
     <row r="249" spans="1:25" ht="16">
       <c r="A249" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L5_F1_C_A</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -11982,7 +11840,7 @@
     </row>
     <row r="250" spans="1:25" ht="16">
       <c r="A250" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L5_F1_E_A</v>
       </c>
       <c r="B250" s="4" t="s">
@@ -12017,7 +11875,7 @@
     </row>
     <row r="251" spans="1:25" ht="16">
       <c r="A251" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L6_F1_C_A</v>
       </c>
       <c r="B251" s="4" t="s">
@@ -12052,7 +11910,7 @@
     </row>
     <row r="252" spans="1:25" ht="16">
       <c r="A252" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L6_F1_E_A</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -12087,7 +11945,7 @@
     </row>
     <row r="253" spans="1:25" ht="16">
       <c r="A253" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L7_F1_C_A</v>
       </c>
       <c r="B253" s="4" t="s">
@@ -12122,7 +11980,7 @@
     </row>
     <row r="254" spans="1:25" ht="16">
       <c r="A254" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L8_F1_C_A</v>
       </c>
       <c r="B254" s="4" t="s">
@@ -12157,7 +12015,7 @@
     </row>
     <row r="255" spans="1:25" ht="16">
       <c r="A255" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L8_F1_E_A</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -12192,7 +12050,7 @@
     </row>
     <row r="256" spans="1:25" ht="16">
       <c r="A256" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L10_F1_C_A</v>
       </c>
       <c r="B256" s="4" t="s">
@@ -12227,7 +12085,7 @@
     </row>
     <row r="257" spans="1:25" ht="16">
       <c r="A257" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L10_F1_E_A</v>
       </c>
       <c r="B257" s="4" t="s">
@@ -12262,7 +12120,7 @@
     </row>
     <row r="258" spans="1:25" ht="16">
       <c r="A258" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L11_F1_C_A</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -12297,7 +12155,7 @@
     </row>
     <row r="259" spans="1:25" ht="16">
       <c r="A259" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>L11_F1_E_A</v>
       </c>
       <c r="B259" s="4" t="s">
@@ -17074,14 +16932,14 @@
     </row>
     <row r="380" spans="1:25" ht="16">
       <c r="A380" s="4" t="str">
-        <f>CONCATENATE(F380,"_",D380,"_",G380,"_",I380)</f>
+        <f t="shared" ref="A380:A427" si="7">CONCATENATE(F380,"_",D380,"_",G380,"_",I380)</f>
         <v>L1_F1_C_M</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C380" s="4" t="str">
-        <f t="shared" ref="C380:C427" si="9">CONCATENATE(F380,"_",D380,"_",G380)</f>
+        <f t="shared" ref="C380:C427" si="8">CONCATENATE(F380,"_",D380,"_",G380)</f>
         <v>L1_F1_C</v>
       </c>
       <c r="D380" s="4" t="s">
@@ -17118,14 +16976,14 @@
     </row>
     <row r="381" spans="1:25" ht="16">
       <c r="A381" s="4" t="str">
-        <f>CONCATENATE(F381,"_",D381,"_",G381,"_",I381)</f>
+        <f t="shared" si="7"/>
         <v>L1_F1_C_F</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C381" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L1_F1_C</v>
       </c>
       <c r="D381" s="4" t="s">
@@ -17162,14 +17020,14 @@
     </row>
     <row r="382" spans="1:25" ht="16">
       <c r="A382" s="4" t="str">
-        <f>CONCATENATE(F382,"_",D382,"_",G382,"_",I382)</f>
+        <f t="shared" si="7"/>
         <v>L1_F1_E_M</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C382" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L1_F1_E</v>
       </c>
       <c r="D382" s="4" t="s">
@@ -17206,14 +17064,14 @@
     </row>
     <row r="383" spans="1:25" ht="16">
       <c r="A383" s="4" t="str">
-        <f>CONCATENATE(F383,"_",D383,"_",G383,"_",I383)</f>
+        <f t="shared" si="7"/>
         <v>L1_F1_E_F</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C383" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L1_F1_E</v>
       </c>
       <c r="D383" s="4" t="s">
@@ -17250,14 +17108,14 @@
     </row>
     <row r="384" spans="1:25" ht="16">
       <c r="A384" s="4" t="str">
-        <f>CONCATENATE(F384,"_",D384,"_",G384,"_",I384)</f>
+        <f t="shared" si="7"/>
         <v>L2_F1_C_M</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C384" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L2_F1_C</v>
       </c>
       <c r="D384" s="4" t="s">
@@ -17294,14 +17152,14 @@
     </row>
     <row r="385" spans="1:25" ht="16">
       <c r="A385" s="4" t="str">
-        <f>CONCATENATE(F385,"_",D385,"_",G385,"_",I385)</f>
+        <f t="shared" si="7"/>
         <v>L2_F1_C_F</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C385" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L2_F1_C</v>
       </c>
       <c r="D385" s="4" t="s">
@@ -17338,14 +17196,14 @@
     </row>
     <row r="386" spans="1:25" ht="16">
       <c r="A386" s="4" t="str">
-        <f>CONCATENATE(F386,"_",D386,"_",G386,"_",I386)</f>
+        <f t="shared" si="7"/>
         <v>L2_F1_E_M</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C386" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L2_F1_E</v>
       </c>
       <c r="D386" s="4" t="s">
@@ -17382,14 +17240,14 @@
     </row>
     <row r="387" spans="1:25" ht="16">
       <c r="A387" s="4" t="str">
-        <f>CONCATENATE(F387,"_",D387,"_",G387,"_",I387)</f>
+        <f t="shared" si="7"/>
         <v>L2_F1_E_F</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C387" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L2_F1_E</v>
       </c>
       <c r="D387" s="4" t="s">
@@ -17426,14 +17284,14 @@
     </row>
     <row r="388" spans="1:25" ht="16">
       <c r="A388" s="4" t="str">
-        <f>CONCATENATE(F388,"_",D388,"_",G388,"_",I388)</f>
+        <f t="shared" si="7"/>
         <v>L3_F1_C_M</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C388" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L3_F1_C</v>
       </c>
       <c r="D388" s="4" t="s">
@@ -17470,14 +17328,14 @@
     </row>
     <row r="389" spans="1:25" ht="16">
       <c r="A389" s="4" t="str">
-        <f>CONCATENATE(F389,"_",D389,"_",G389,"_",I389)</f>
+        <f t="shared" si="7"/>
         <v>L3_F1_C_F</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C389" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L3_F1_C</v>
       </c>
       <c r="D389" s="4" t="s">
@@ -17514,14 +17372,14 @@
     </row>
     <row r="390" spans="1:25" ht="16">
       <c r="A390" s="4" t="str">
-        <f>CONCATENATE(F390,"_",D390,"_",G390,"_",I390)</f>
+        <f t="shared" si="7"/>
         <v>L3_F1_E_M</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C390" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L3_F1_E</v>
       </c>
       <c r="D390" s="4" t="s">
@@ -17558,14 +17416,14 @@
     </row>
     <row r="391" spans="1:25" ht="16">
       <c r="A391" s="4" t="str">
-        <f>CONCATENATE(F391,"_",D391,"_",G391,"_",I391)</f>
+        <f t="shared" si="7"/>
         <v>L3_F1_E_F</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C391" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L3_F1_E</v>
       </c>
       <c r="D391" s="4" t="s">
@@ -17602,14 +17460,14 @@
     </row>
     <row r="392" spans="1:25" ht="16">
       <c r="A392" s="4" t="str">
-        <f>CONCATENATE(F392,"_",D392,"_",G392,"_",I392)</f>
+        <f t="shared" si="7"/>
         <v>L4_F1_C_M</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C392" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L4_F1_C</v>
       </c>
       <c r="D392" s="4" t="s">
@@ -17646,14 +17504,14 @@
     </row>
     <row r="393" spans="1:25" ht="16">
       <c r="A393" s="4" t="str">
-        <f>CONCATENATE(F393,"_",D393,"_",G393,"_",I393)</f>
+        <f t="shared" si="7"/>
         <v>L4_F1_C_F</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C393" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L4_F1_C</v>
       </c>
       <c r="D393" s="4" t="s">
@@ -17690,14 +17548,14 @@
     </row>
     <row r="394" spans="1:25" ht="16">
       <c r="A394" s="4" t="str">
-        <f>CONCATENATE(F394,"_",D394,"_",G394,"_",I394)</f>
+        <f t="shared" si="7"/>
         <v>L4_F1_E_M</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C394" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L4_F1_E</v>
       </c>
       <c r="D394" s="4" t="s">
@@ -17732,14 +17590,14 @@
     </row>
     <row r="395" spans="1:25" ht="16">
       <c r="A395" s="4" t="str">
-        <f>CONCATENATE(F395,"_",D395,"_",G395,"_",I395)</f>
+        <f t="shared" si="7"/>
         <v>L4_F1_E_F</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C395" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L4_F1_E</v>
       </c>
       <c r="D395" s="4" t="s">
@@ -17774,14 +17632,14 @@
     </row>
     <row r="396" spans="1:25" ht="16">
       <c r="A396" s="4" t="str">
-        <f>CONCATENATE(F396,"_",D396,"_",G396,"_",I396)</f>
+        <f t="shared" si="7"/>
         <v>L5_F1_C_M</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C396" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L5_F1_C</v>
       </c>
       <c r="D396" s="4" t="s">
@@ -17818,14 +17676,14 @@
     </row>
     <row r="397" spans="1:25" ht="16">
       <c r="A397" s="4" t="str">
-        <f>CONCATENATE(F397,"_",D397,"_",G397,"_",I397)</f>
+        <f t="shared" si="7"/>
         <v>L5_F1_C_F</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C397" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L5_F1_C</v>
       </c>
       <c r="D397" s="4" t="s">
@@ -17862,14 +17720,14 @@
     </row>
     <row r="398" spans="1:25" ht="16">
       <c r="A398" s="4" t="str">
-        <f>CONCATENATE(F398,"_",D398,"_",G398,"_",I398)</f>
+        <f t="shared" si="7"/>
         <v>L5_F1_E_M</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C398" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L5_F1_E</v>
       </c>
       <c r="D398" s="4" t="s">
@@ -17906,14 +17764,14 @@
     </row>
     <row r="399" spans="1:25" ht="16">
       <c r="A399" s="4" t="str">
-        <f>CONCATENATE(F399,"_",D399,"_",G399,"_",I399)</f>
+        <f t="shared" si="7"/>
         <v>L5_F1_E_F</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C399" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L5_F1_E</v>
       </c>
       <c r="D399" s="4" t="s">
@@ -17950,14 +17808,14 @@
     </row>
     <row r="400" spans="1:25" ht="16">
       <c r="A400" s="4" t="str">
-        <f>CONCATENATE(F400,"_",D400,"_",G400,"_",I400)</f>
+        <f t="shared" si="7"/>
         <v>L6_F1_C_M</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C400" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L6_F1_C</v>
       </c>
       <c r="D400" s="4" t="s">
@@ -17994,14 +17852,14 @@
     </row>
     <row r="401" spans="1:25" ht="16">
       <c r="A401" s="4" t="str">
-        <f>CONCATENATE(F401,"_",D401,"_",G401,"_",I401)</f>
+        <f t="shared" si="7"/>
         <v>L6_F1_C_F</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C401" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L6_F1_C</v>
       </c>
       <c r="D401" s="4" t="s">
@@ -18038,14 +17896,14 @@
     </row>
     <row r="402" spans="1:25" ht="16">
       <c r="A402" s="4" t="str">
-        <f>CONCATENATE(F402,"_",D402,"_",G402,"_",I402)</f>
+        <f t="shared" si="7"/>
         <v>L6_F1_E_M</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C402" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L6_F1_E</v>
       </c>
       <c r="D402" s="4" t="s">
@@ -18082,14 +17940,14 @@
     </row>
     <row r="403" spans="1:25" ht="16">
       <c r="A403" s="4" t="str">
-        <f>CONCATENATE(F403,"_",D403,"_",G403,"_",I403)</f>
+        <f t="shared" si="7"/>
         <v>L6_F1_E_F</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C403" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L6_F1_E</v>
       </c>
       <c r="D403" s="4" t="s">
@@ -18126,14 +17984,14 @@
     </row>
     <row r="404" spans="1:25" ht="16">
       <c r="A404" s="4" t="str">
-        <f>CONCATENATE(F404,"_",D404,"_",G404,"_",I404)</f>
+        <f t="shared" si="7"/>
         <v>L7_F1_C_M</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C404" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L7_F1_C</v>
       </c>
       <c r="D404" s="4" t="s">
@@ -18170,14 +18028,14 @@
     </row>
     <row r="405" spans="1:25" ht="16">
       <c r="A405" s="4" t="str">
-        <f>CONCATENATE(F405,"_",D405,"_",G405,"_",I405)</f>
+        <f t="shared" si="7"/>
         <v>L7_F1_C_F</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C405" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L7_F1_C</v>
       </c>
       <c r="D405" s="4" t="s">
@@ -18214,14 +18072,14 @@
     </row>
     <row r="406" spans="1:25" ht="16">
       <c r="A406" s="4" t="str">
-        <f>CONCATENATE(F406,"_",D406,"_",G406,"_",I406)</f>
+        <f t="shared" si="7"/>
         <v>L7_F1_E_M</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C406" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L7_F1_E</v>
       </c>
       <c r="D406" s="4" t="s">
@@ -18256,14 +18114,14 @@
     </row>
     <row r="407" spans="1:25" ht="16">
       <c r="A407" s="4" t="str">
-        <f>CONCATENATE(F407,"_",D407,"_",G407,"_",I407)</f>
+        <f t="shared" si="7"/>
         <v>L7_F1_E_F</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C407" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L7_F1_E</v>
       </c>
       <c r="D407" s="4" t="s">
@@ -18298,14 +18156,14 @@
     </row>
     <row r="408" spans="1:25" ht="16">
       <c r="A408" s="4" t="str">
-        <f>CONCATENATE(F408,"_",D408,"_",G408,"_",I408)</f>
+        <f t="shared" si="7"/>
         <v>L8_F1_C_M</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C408" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L8_F1_C</v>
       </c>
       <c r="D408" s="4" t="s">
@@ -18342,14 +18200,14 @@
     </row>
     <row r="409" spans="1:25" ht="16">
       <c r="A409" s="4" t="str">
-        <f>CONCATENATE(F409,"_",D409,"_",G409,"_",I409)</f>
+        <f t="shared" si="7"/>
         <v>L8_F1_C_F</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C409" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L8_F1_C</v>
       </c>
       <c r="D409" s="4" t="s">
@@ -18386,14 +18244,14 @@
     </row>
     <row r="410" spans="1:25" ht="16">
       <c r="A410" s="4" t="str">
-        <f>CONCATENATE(F410,"_",D410,"_",G410,"_",I410)</f>
+        <f t="shared" si="7"/>
         <v>L8_F1_E_M</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C410" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L8_F1_E</v>
       </c>
       <c r="D410" s="4" t="s">
@@ -18430,14 +18288,14 @@
     </row>
     <row r="411" spans="1:25" ht="16">
       <c r="A411" s="4" t="str">
-        <f>CONCATENATE(F411,"_",D411,"_",G411,"_",I411)</f>
+        <f t="shared" si="7"/>
         <v>L8_F1_E_F</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C411" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L8_F1_E</v>
       </c>
       <c r="D411" s="4" t="s">
@@ -18474,14 +18332,14 @@
     </row>
     <row r="412" spans="1:25" ht="16">
       <c r="A412" s="4" t="str">
-        <f>CONCATENATE(F412,"_",D412,"_",G412,"_",I412)</f>
+        <f t="shared" si="7"/>
         <v>L9_F1_C_M</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C412" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L9_F1_C</v>
       </c>
       <c r="D412" s="4" t="s">
@@ -18516,14 +18374,14 @@
     </row>
     <row r="413" spans="1:25" ht="16">
       <c r="A413" s="4" t="str">
-        <f>CONCATENATE(F413,"_",D413,"_",G413,"_",I413)</f>
+        <f t="shared" si="7"/>
         <v>L9_F1_C_F</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C413" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L9_F1_C</v>
       </c>
       <c r="D413" s="4" t="s">
@@ -18558,14 +18416,14 @@
     </row>
     <row r="414" spans="1:25" ht="16">
       <c r="A414" s="4" t="str">
-        <f>CONCATENATE(F414,"_",D414,"_",G414,"_",I414)</f>
+        <f t="shared" si="7"/>
         <v>L9_F1_E_M</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C414" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L9_F1_E</v>
       </c>
       <c r="D414" s="4" t="s">
@@ -18600,14 +18458,14 @@
     </row>
     <row r="415" spans="1:25" ht="16">
       <c r="A415" s="4" t="str">
-        <f>CONCATENATE(F415,"_",D415,"_",G415,"_",I415)</f>
+        <f t="shared" si="7"/>
         <v>L9_F1_E_F</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C415" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L9_F1_E</v>
       </c>
       <c r="D415" s="4" t="s">
@@ -18642,14 +18500,14 @@
     </row>
     <row r="416" spans="1:25" ht="16">
       <c r="A416" s="4" t="str">
-        <f>CONCATENATE(F416,"_",D416,"_",G416,"_",I416)</f>
+        <f t="shared" si="7"/>
         <v>L10_F1_C_M</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C416" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L10_F1_C</v>
       </c>
       <c r="D416" s="4" t="s">
@@ -18686,14 +18544,14 @@
     </row>
     <row r="417" spans="1:25" ht="16">
       <c r="A417" s="4" t="str">
-        <f>CONCATENATE(F417,"_",D417,"_",G417,"_",I417)</f>
+        <f t="shared" si="7"/>
         <v>L10_F1_C_F</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C417" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L10_F1_C</v>
       </c>
       <c r="D417" s="4" t="s">
@@ -18730,14 +18588,14 @@
     </row>
     <row r="418" spans="1:25" ht="16">
       <c r="A418" s="4" t="str">
-        <f>CONCATENATE(F418,"_",D418,"_",G418,"_",I418)</f>
+        <f t="shared" si="7"/>
         <v>L10_F1_E_M</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C418" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L10_F1_E</v>
       </c>
       <c r="D418" s="4" t="s">
@@ -18774,14 +18632,14 @@
     </row>
     <row r="419" spans="1:25" ht="16">
       <c r="A419" s="4" t="str">
-        <f>CONCATENATE(F419,"_",D419,"_",G419,"_",I419)</f>
+        <f t="shared" si="7"/>
         <v>L10_F1_E_F</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C419" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L10_F1_E</v>
       </c>
       <c r="D419" s="4" t="s">
@@ -18818,14 +18676,14 @@
     </row>
     <row r="420" spans="1:25" ht="16">
       <c r="A420" s="4" t="str">
-        <f>CONCATENATE(F420,"_",D420,"_",G420,"_",I420)</f>
+        <f t="shared" si="7"/>
         <v>L11_F1_C_M</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C420" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L11_F1_C</v>
       </c>
       <c r="D420" s="4" t="s">
@@ -18862,14 +18720,14 @@
     </row>
     <row r="421" spans="1:25" ht="16">
       <c r="A421" s="4" t="str">
-        <f>CONCATENATE(F421,"_",D421,"_",G421,"_",I421)</f>
+        <f t="shared" si="7"/>
         <v>L11_F1_C_F</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C421" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L11_F1_C</v>
       </c>
       <c r="D421" s="4" t="s">
@@ -18906,14 +18764,14 @@
     </row>
     <row r="422" spans="1:25" ht="16">
       <c r="A422" s="4" t="str">
-        <f>CONCATENATE(F422,"_",D422,"_",G422,"_",I422)</f>
+        <f t="shared" si="7"/>
         <v>L11_F1_E_M</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C422" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L11_F1_E</v>
       </c>
       <c r="D422" s="4" t="s">
@@ -18948,14 +18806,14 @@
     </row>
     <row r="423" spans="1:25" ht="16">
       <c r="A423" s="4" t="str">
-        <f>CONCATENATE(F423,"_",D423,"_",G423,"_",I423)</f>
+        <f t="shared" si="7"/>
         <v>L11_F1_E_F</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C423" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L11_F1_E</v>
       </c>
       <c r="D423" s="4" t="s">
@@ -18990,14 +18848,14 @@
     </row>
     <row r="424" spans="1:25" ht="16">
       <c r="A424" s="4" t="str">
-        <f>CONCATENATE(F424,"_",D424,"_",G424,"_",I424)</f>
+        <f t="shared" si="7"/>
         <v>L12_F1_C_M</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C424" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L12_F1_C</v>
       </c>
       <c r="D424" s="4" t="s">
@@ -19032,14 +18890,14 @@
     </row>
     <row r="425" spans="1:25" ht="16">
       <c r="A425" s="4" t="str">
-        <f>CONCATENATE(F425,"_",D425,"_",G425,"_",I425)</f>
+        <f t="shared" si="7"/>
         <v>L12_F1_C_F</v>
       </c>
       <c r="B425" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C425" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L12_F1_C</v>
       </c>
       <c r="D425" s="4" t="s">
@@ -19074,14 +18932,14 @@
     </row>
     <row r="426" spans="1:25" ht="16">
       <c r="A426" s="4" t="str">
-        <f>CONCATENATE(F426,"_",D426,"_",G426,"_",I426)</f>
+        <f t="shared" si="7"/>
         <v>L12_F1_E_M</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C426" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L12_F1_E</v>
       </c>
       <c r="D426" s="4" t="s">
@@ -19116,14 +18974,14 @@
     </row>
     <row r="427" spans="1:25" ht="16">
       <c r="A427" s="4" t="str">
-        <f>CONCATENATE(F427,"_",D427,"_",G427,"_",I427)</f>
+        <f t="shared" si="7"/>
         <v>L12_F1_E_F</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C427" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>L12_F1_E</v>
       </c>
       <c r="D427" s="4" t="s">
@@ -19158,7 +19016,7 @@
     </row>
     <row r="428" spans="1:25" ht="16">
       <c r="A428" s="4" t="str">
-        <f t="shared" ref="A428:A444" si="10">CONCATENATE(F428,"_",E428,"_",G428,"_","A")</f>
+        <f t="shared" ref="A428:A444" si="9">CONCATENATE(F428,"_",E428,"_",G428,"_","A")</f>
         <v>L1_F2_C_A</v>
       </c>
       <c r="B428" s="4" t="s">
@@ -19193,7 +19051,7 @@
     </row>
     <row r="429" spans="1:25" ht="16">
       <c r="A429" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L1_F2_E_A</v>
       </c>
       <c r="B429" s="4" t="s">
@@ -19228,7 +19086,7 @@
     </row>
     <row r="430" spans="1:25" ht="16">
       <c r="A430" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L2_F2_C_A</v>
       </c>
       <c r="B430" s="4" t="s">
@@ -19263,7 +19121,7 @@
     </row>
     <row r="431" spans="1:25" ht="16">
       <c r="A431" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L2_F2_E_A</v>
       </c>
       <c r="B431" s="4" t="s">
@@ -19298,7 +19156,7 @@
     </row>
     <row r="432" spans="1:25" ht="16">
       <c r="A432" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L3_F2_C_A</v>
       </c>
       <c r="B432" s="4" t="s">
@@ -19333,7 +19191,7 @@
     </row>
     <row r="433" spans="1:25" ht="16">
       <c r="A433" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L3_F2_E_A</v>
       </c>
       <c r="B433" s="4" t="s">
@@ -19368,7 +19226,7 @@
     </row>
     <row r="434" spans="1:25" ht="16">
       <c r="A434" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L4_F2_C_A</v>
       </c>
       <c r="B434" s="4" t="s">
@@ -19403,7 +19261,7 @@
     </row>
     <row r="435" spans="1:25" ht="16">
       <c r="A435" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L5_F2_C_A</v>
       </c>
       <c r="B435" s="4" t="s">
@@ -19438,7 +19296,7 @@
     </row>
     <row r="436" spans="1:25" ht="16">
       <c r="A436" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L5_F2_E_A</v>
       </c>
       <c r="B436" s="4" t="s">
@@ -19473,7 +19331,7 @@
     </row>
     <row r="437" spans="1:25" ht="16">
       <c r="A437" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L6_F2_C_A</v>
       </c>
       <c r="B437" s="4" t="s">
@@ -19508,7 +19366,7 @@
     </row>
     <row r="438" spans="1:25" ht="16">
       <c r="A438" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L6_F2_E_A</v>
       </c>
       <c r="B438" s="4" t="s">
@@ -19543,7 +19401,7 @@
     </row>
     <row r="439" spans="1:25" ht="16">
       <c r="A439" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L7_F2_C_A</v>
       </c>
       <c r="B439" s="4" t="s">
@@ -19578,7 +19436,7 @@
     </row>
     <row r="440" spans="1:25" ht="16">
       <c r="A440" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L8_F2_C_A</v>
       </c>
       <c r="B440" s="4" t="s">
@@ -19613,7 +19471,7 @@
     </row>
     <row r="441" spans="1:25" ht="16">
       <c r="A441" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L8_F2_E_A</v>
       </c>
       <c r="B441" s="4" t="s">
@@ -19648,7 +19506,7 @@
     </row>
     <row r="442" spans="1:25" ht="16">
       <c r="A442" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L10_F2_C_A</v>
       </c>
       <c r="B442" s="4" t="s">
@@ -19683,7 +19541,7 @@
     </row>
     <row r="443" spans="1:25" ht="16">
       <c r="A443" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L10_F2_E_A</v>
       </c>
       <c r="B443" s="4" t="s">
@@ -19718,7 +19576,7 @@
     </row>
     <row r="444" spans="1:25" ht="16">
       <c r="A444" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>L11_F2_C_A</v>
       </c>
       <c r="B444" s="4" t="s">
@@ -22884,7 +22742,7 @@
     </row>
     <row r="524" spans="1:25" ht="16">
       <c r="A524" s="4" t="str">
-        <f>CONCATENATE(F524,"_",D524,"_",G524,"_",I524)</f>
+        <f t="shared" ref="A524:A571" si="10">CONCATENATE(F524,"_",D524,"_",G524,"_",I524)</f>
         <v>L1_F2_C_M</v>
       </c>
       <c r="B524" s="4" t="s">
@@ -22928,7 +22786,7 @@
     </row>
     <row r="525" spans="1:25" ht="16">
       <c r="A525" s="4" t="str">
-        <f>CONCATENATE(F525,"_",D525,"_",G525,"_",I525)</f>
+        <f t="shared" si="10"/>
         <v>L1_F2_C_F</v>
       </c>
       <c r="B525" s="4" t="s">
@@ -22972,7 +22830,7 @@
     </row>
     <row r="526" spans="1:25" ht="16">
       <c r="A526" s="4" t="str">
-        <f>CONCATENATE(F526,"_",D526,"_",G526,"_",I526)</f>
+        <f t="shared" si="10"/>
         <v>L1_F2_E_M</v>
       </c>
       <c r="B526" s="4" t="s">
@@ -23016,7 +22874,7 @@
     </row>
     <row r="527" spans="1:25" ht="16">
       <c r="A527" s="4" t="str">
-        <f>CONCATENATE(F527,"_",D527,"_",G527,"_",I527)</f>
+        <f t="shared" si="10"/>
         <v>L1_F2_E_F</v>
       </c>
       <c r="B527" s="4" t="s">
@@ -23060,7 +22918,7 @@
     </row>
     <row r="528" spans="1:25" ht="16">
       <c r="A528" s="4" t="str">
-        <f>CONCATENATE(F528,"_",D528,"_",G528,"_",I528)</f>
+        <f t="shared" si="10"/>
         <v>L2_F2_C_M</v>
       </c>
       <c r="B528" s="4" t="s">
@@ -23104,7 +22962,7 @@
     </row>
     <row r="529" spans="1:25" ht="16">
       <c r="A529" s="4" t="str">
-        <f>CONCATENATE(F529,"_",D529,"_",G529,"_",I529)</f>
+        <f t="shared" si="10"/>
         <v>L2_F2_C_F</v>
       </c>
       <c r="B529" s="4" t="s">
@@ -23148,7 +23006,7 @@
     </row>
     <row r="530" spans="1:25" ht="16">
       <c r="A530" s="4" t="str">
-        <f>CONCATENATE(F530,"_",D530,"_",G530,"_",I530)</f>
+        <f t="shared" si="10"/>
         <v>L2_F2_E_M</v>
       </c>
       <c r="B530" s="4" t="s">
@@ -23192,7 +23050,7 @@
     </row>
     <row r="531" spans="1:25" ht="16">
       <c r="A531" s="4" t="str">
-        <f>CONCATENATE(F531,"_",D531,"_",G531,"_",I531)</f>
+        <f t="shared" si="10"/>
         <v>L2_F2_E_F</v>
       </c>
       <c r="B531" s="4" t="s">
@@ -23236,7 +23094,7 @@
     </row>
     <row r="532" spans="1:25" ht="16">
       <c r="A532" s="4" t="str">
-        <f>CONCATENATE(F532,"_",D532,"_",G532,"_",I532)</f>
+        <f t="shared" si="10"/>
         <v>L3_F2_C_M</v>
       </c>
       <c r="B532" s="4" t="s">
@@ -23280,7 +23138,7 @@
     </row>
     <row r="533" spans="1:25" ht="16">
       <c r="A533" s="4" t="str">
-        <f>CONCATENATE(F533,"_",D533,"_",G533,"_",I533)</f>
+        <f t="shared" si="10"/>
         <v>L3_F2_C_F</v>
       </c>
       <c r="B533" s="4" t="s">
@@ -23324,7 +23182,7 @@
     </row>
     <row r="534" spans="1:25" ht="16">
       <c r="A534" s="4" t="str">
-        <f>CONCATENATE(F534,"_",D534,"_",G534,"_",I534)</f>
+        <f t="shared" si="10"/>
         <v>L3_F2_E_M</v>
       </c>
       <c r="B534" s="4" t="s">
@@ -23368,7 +23226,7 @@
     </row>
     <row r="535" spans="1:25" ht="16">
       <c r="A535" s="4" t="str">
-        <f>CONCATENATE(F535,"_",D535,"_",G535,"_",I535)</f>
+        <f t="shared" si="10"/>
         <v>L3_F2_E_F</v>
       </c>
       <c r="B535" s="4" t="s">
@@ -23412,7 +23270,7 @@
     </row>
     <row r="536" spans="1:25" ht="16">
       <c r="A536" s="4" t="str">
-        <f>CONCATENATE(F536,"_",D536,"_",G536,"_",I536)</f>
+        <f t="shared" si="10"/>
         <v>L4_F2_C_M</v>
       </c>
       <c r="B536" s="4" t="s">
@@ -23456,7 +23314,7 @@
     </row>
     <row r="537" spans="1:25" ht="16">
       <c r="A537" s="4" t="str">
-        <f>CONCATENATE(F537,"_",D537,"_",G537,"_",I537)</f>
+        <f t="shared" si="10"/>
         <v>L4_F2_C_F</v>
       </c>
       <c r="B537" s="4" t="s">
@@ -23500,7 +23358,7 @@
     </row>
     <row r="538" spans="1:25" ht="16">
       <c r="A538" s="4" t="str">
-        <f>CONCATENATE(F538,"_",D538,"_",G538,"_",I538)</f>
+        <f t="shared" si="10"/>
         <v>L4_F2_E_M</v>
       </c>
       <c r="B538" s="4" t="s">
@@ -23542,7 +23400,7 @@
     </row>
     <row r="539" spans="1:25" ht="16">
       <c r="A539" s="4" t="str">
-        <f>CONCATENATE(F539,"_",D539,"_",G539,"_",I539)</f>
+        <f t="shared" si="10"/>
         <v>L4_F2_E_F</v>
       </c>
       <c r="B539" s="4" t="s">
@@ -23584,7 +23442,7 @@
     </row>
     <row r="540" spans="1:25" ht="16">
       <c r="A540" s="4" t="str">
-        <f>CONCATENATE(F540,"_",D540,"_",G540,"_",I540)</f>
+        <f t="shared" si="10"/>
         <v>L5_F2_C_M</v>
       </c>
       <c r="B540" s="4" t="s">
@@ -23628,7 +23486,7 @@
     </row>
     <row r="541" spans="1:25" ht="16">
       <c r="A541" s="4" t="str">
-        <f>CONCATENATE(F541,"_",D541,"_",G541,"_",I541)</f>
+        <f t="shared" si="10"/>
         <v>L5_F2_C_F</v>
       </c>
       <c r="B541" s="4" t="s">
@@ -23672,7 +23530,7 @@
     </row>
     <row r="542" spans="1:25" ht="16">
       <c r="A542" s="4" t="str">
-        <f>CONCATENATE(F542,"_",D542,"_",G542,"_",I542)</f>
+        <f t="shared" si="10"/>
         <v>L5_F2_E_M</v>
       </c>
       <c r="B542" s="4" t="s">
@@ -23716,7 +23574,7 @@
     </row>
     <row r="543" spans="1:25" ht="16">
       <c r="A543" s="4" t="str">
-        <f>CONCATENATE(F543,"_",D543,"_",G543,"_",I543)</f>
+        <f t="shared" si="10"/>
         <v>L5_F2_E_F</v>
       </c>
       <c r="B543" s="4" t="s">
@@ -23760,7 +23618,7 @@
     </row>
     <row r="544" spans="1:25" ht="16">
       <c r="A544" s="4" t="str">
-        <f>CONCATENATE(F544,"_",D544,"_",G544,"_",I544)</f>
+        <f t="shared" si="10"/>
         <v>L6_F2_C_M</v>
       </c>
       <c r="B544" s="4" t="s">
@@ -23804,7 +23662,7 @@
     </row>
     <row r="545" spans="1:25" ht="16">
       <c r="A545" s="4" t="str">
-        <f>CONCATENATE(F545,"_",D545,"_",G545,"_",I545)</f>
+        <f t="shared" si="10"/>
         <v>L6_F2_C_F</v>
       </c>
       <c r="B545" s="4" t="s">
@@ -23848,7 +23706,7 @@
     </row>
     <row r="546" spans="1:25" ht="16">
       <c r="A546" s="4" t="str">
-        <f>CONCATENATE(F546,"_",D546,"_",G546,"_",I546)</f>
+        <f t="shared" si="10"/>
         <v>L6_F2_E_M</v>
       </c>
       <c r="B546" s="4" t="s">
@@ -23892,7 +23750,7 @@
     </row>
     <row r="547" spans="1:25" ht="16">
       <c r="A547" s="4" t="str">
-        <f>CONCATENATE(F547,"_",D547,"_",G547,"_",I547)</f>
+        <f t="shared" si="10"/>
         <v>L6_F2_E_F</v>
       </c>
       <c r="B547" s="4" t="s">
@@ -23936,7 +23794,7 @@
     </row>
     <row r="548" spans="1:25" ht="16">
       <c r="A548" s="4" t="str">
-        <f>CONCATENATE(F548,"_",D548,"_",G548,"_",I548)</f>
+        <f t="shared" si="10"/>
         <v>L7_F2_C_M</v>
       </c>
       <c r="B548" s="4" t="s">
@@ -23980,7 +23838,7 @@
     </row>
     <row r="549" spans="1:25" ht="16">
       <c r="A549" s="4" t="str">
-        <f>CONCATENATE(F549,"_",D549,"_",G549,"_",I549)</f>
+        <f t="shared" si="10"/>
         <v>L7_F2_C_F</v>
       </c>
       <c r="B549" s="4" t="s">
@@ -24024,7 +23882,7 @@
     </row>
     <row r="550" spans="1:25" ht="16">
       <c r="A550" s="4" t="str">
-        <f>CONCATENATE(F550,"_",D550,"_",G550,"_",I550)</f>
+        <f t="shared" si="10"/>
         <v>L7_F2_E_M</v>
       </c>
       <c r="B550" s="4" t="s">
@@ -24066,7 +23924,7 @@
     </row>
     <row r="551" spans="1:25" ht="16">
       <c r="A551" s="4" t="str">
-        <f>CONCATENATE(F551,"_",D551,"_",G551,"_",I551)</f>
+        <f t="shared" si="10"/>
         <v>L7_F2_E_F</v>
       </c>
       <c r="B551" s="4" t="s">
@@ -24108,7 +23966,7 @@
     </row>
     <row r="552" spans="1:25" ht="16">
       <c r="A552" s="4" t="str">
-        <f>CONCATENATE(F552,"_",D552,"_",G552,"_",I552)</f>
+        <f t="shared" si="10"/>
         <v>L8_F2_C_M</v>
       </c>
       <c r="B552" s="4" t="s">
@@ -24152,7 +24010,7 @@
     </row>
     <row r="553" spans="1:25" ht="16">
       <c r="A553" s="4" t="str">
-        <f>CONCATENATE(F553,"_",D553,"_",G553,"_",I553)</f>
+        <f t="shared" si="10"/>
         <v>L8_F2_C_F</v>
       </c>
       <c r="B553" s="4" t="s">
@@ -24196,7 +24054,7 @@
     </row>
     <row r="554" spans="1:25" ht="16">
       <c r="A554" s="4" t="str">
-        <f>CONCATENATE(F554,"_",D554,"_",G554,"_",I554)</f>
+        <f t="shared" si="10"/>
         <v>L8_F2_E_M</v>
       </c>
       <c r="B554" s="4" t="s">
@@ -24240,7 +24098,7 @@
     </row>
     <row r="555" spans="1:25" ht="16">
       <c r="A555" s="4" t="str">
-        <f>CONCATENATE(F555,"_",D555,"_",G555,"_",I555)</f>
+        <f t="shared" si="10"/>
         <v>L8_F2_E_F</v>
       </c>
       <c r="B555" s="4" t="s">
@@ -24284,7 +24142,7 @@
     </row>
     <row r="556" spans="1:25" ht="16">
       <c r="A556" s="4" t="str">
-        <f>CONCATENATE(F556,"_",D556,"_",G556,"_",I556)</f>
+        <f t="shared" si="10"/>
         <v>L9_F2_C_M</v>
       </c>
       <c r="B556" s="4" t="s">
@@ -24326,7 +24184,7 @@
     </row>
     <row r="557" spans="1:25" ht="16">
       <c r="A557" s="4" t="str">
-        <f>CONCATENATE(F557,"_",D557,"_",G557,"_",I557)</f>
+        <f t="shared" si="10"/>
         <v>L9_F2_C_F</v>
       </c>
       <c r="B557" s="4" t="s">
@@ -24368,7 +24226,7 @@
     </row>
     <row r="558" spans="1:25" ht="16">
       <c r="A558" s="4" t="str">
-        <f>CONCATENATE(F558,"_",D558,"_",G558,"_",I558)</f>
+        <f t="shared" si="10"/>
         <v>L9_F2_E_M</v>
       </c>
       <c r="B558" s="4" t="s">
@@ -24410,7 +24268,7 @@
     </row>
     <row r="559" spans="1:25" ht="16">
       <c r="A559" s="4" t="str">
-        <f>CONCATENATE(F559,"_",D559,"_",G559,"_",I559)</f>
+        <f t="shared" si="10"/>
         <v>L9_F2_E_F</v>
       </c>
       <c r="B559" s="4" t="s">
@@ -24452,7 +24310,7 @@
     </row>
     <row r="560" spans="1:25" ht="16">
       <c r="A560" s="4" t="str">
-        <f>CONCATENATE(F560,"_",D560,"_",G560,"_",I560)</f>
+        <f t="shared" si="10"/>
         <v>L10_F2_C_M</v>
       </c>
       <c r="B560" s="4" t="s">
@@ -24496,7 +24354,7 @@
     </row>
     <row r="561" spans="1:25" ht="16">
       <c r="A561" s="4" t="str">
-        <f>CONCATENATE(F561,"_",D561,"_",G561,"_",I561)</f>
+        <f t="shared" si="10"/>
         <v>L10_F2_C_F</v>
       </c>
       <c r="B561" s="4" t="s">
@@ -24540,7 +24398,7 @@
     </row>
     <row r="562" spans="1:25" ht="16">
       <c r="A562" s="4" t="str">
-        <f>CONCATENATE(F562,"_",D562,"_",G562,"_",I562)</f>
+        <f t="shared" si="10"/>
         <v>L10_F2_E_M</v>
       </c>
       <c r="B562" s="4" t="s">
@@ -24584,7 +24442,7 @@
     </row>
     <row r="563" spans="1:25" ht="16">
       <c r="A563" s="4" t="str">
-        <f>CONCATENATE(F563,"_",D563,"_",G563,"_",I563)</f>
+        <f t="shared" si="10"/>
         <v>L10_F2_E_F</v>
       </c>
       <c r="B563" s="4" t="s">
@@ -24628,7 +24486,7 @@
     </row>
     <row r="564" spans="1:25" ht="16">
       <c r="A564" s="4" t="str">
-        <f>CONCATENATE(F564,"_",D564,"_",G564,"_",I564)</f>
+        <f t="shared" si="10"/>
         <v>L11_F2_C_M</v>
       </c>
       <c r="B564" s="4" t="s">
@@ -24672,7 +24530,7 @@
     </row>
     <row r="565" spans="1:25" ht="16">
       <c r="A565" s="4" t="str">
-        <f>CONCATENATE(F565,"_",D565,"_",G565,"_",I565)</f>
+        <f t="shared" si="10"/>
         <v>L11_F2_C_F</v>
       </c>
       <c r="B565" s="4" t="s">
@@ -24716,7 +24574,7 @@
     </row>
     <row r="566" spans="1:25" ht="16">
       <c r="A566" s="4" t="str">
-        <f>CONCATENATE(F566,"_",D566,"_",G566,"_",I566)</f>
+        <f t="shared" si="10"/>
         <v>L11_F2_E_M</v>
       </c>
       <c r="B566" s="4" t="s">
@@ -24758,7 +24616,7 @@
     </row>
     <row r="567" spans="1:25" ht="16">
       <c r="A567" s="4" t="str">
-        <f>CONCATENATE(F567,"_",D567,"_",G567,"_",I567)</f>
+        <f t="shared" si="10"/>
         <v>L11_F2_E_F</v>
       </c>
       <c r="B567" s="4" t="s">
@@ -24800,7 +24658,7 @@
     </row>
     <row r="568" spans="1:25" ht="16">
       <c r="A568" s="4" t="str">
-        <f>CONCATENATE(F568,"_",D568,"_",G568,"_",I568)</f>
+        <f t="shared" si="10"/>
         <v>L12_F2_C_M</v>
       </c>
       <c r="B568" s="4" t="s">
@@ -24842,7 +24700,7 @@
     </row>
     <row r="569" spans="1:25" ht="16">
       <c r="A569" s="4" t="str">
-        <f>CONCATENATE(F569,"_",D569,"_",G569,"_",I569)</f>
+        <f t="shared" si="10"/>
         <v>L12_F2_C_F</v>
       </c>
       <c r="B569" s="4" t="s">
@@ -24884,7 +24742,7 @@
     </row>
     <row r="570" spans="1:25" ht="16">
       <c r="A570" s="4" t="str">
-        <f>CONCATENATE(F570,"_",D570,"_",G570,"_",I570)</f>
+        <f t="shared" si="10"/>
         <v>L12_F2_E_M</v>
       </c>
       <c r="B570" s="4" t="s">
@@ -24926,7 +24784,7 @@
     </row>
     <row r="571" spans="1:25" ht="16">
       <c r="A571" s="4" t="str">
-        <f>CONCATENATE(F571,"_",D571,"_",G571,"_",I571)</f>
+        <f t="shared" si="10"/>
         <v>L12_F2_E_F</v>
       </c>
       <c r="B571" s="4" t="s">
@@ -28535,14 +28393,14 @@
     </row>
     <row r="665" spans="1:25" ht="16">
       <c r="A665" s="4" t="str">
-        <f>CONCATENATE(F665,"_",D665,"_",G665,"_",I665)</f>
+        <f t="shared" ref="A665:A712" si="13">CONCATENATE(F665,"_",D665,"_",G665,"_",I665)</f>
         <v>L1_F3_C_M</v>
       </c>
       <c r="B665" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C665" s="4" t="str">
-        <f t="shared" ref="C665:C712" si="13">CONCATENATE(F665,"_",D665,"_",G665)</f>
+        <f t="shared" ref="C665:C712" si="14">CONCATENATE(F665,"_",D665,"_",G665)</f>
         <v>L1_F3_C</v>
       </c>
       <c r="D665" s="4" t="s">
@@ -28577,14 +28435,14 @@
     </row>
     <row r="666" spans="1:25" ht="16">
       <c r="A666" s="4" t="str">
-        <f>CONCATENATE(F666,"_",D666,"_",G666,"_",I666)</f>
+        <f t="shared" si="13"/>
         <v>L1_F3_C_F</v>
       </c>
       <c r="B666" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C666" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L1_F3_C</v>
       </c>
       <c r="D666" s="4" t="s">
@@ -28619,14 +28477,14 @@
     </row>
     <row r="667" spans="1:25" ht="16">
       <c r="A667" s="4" t="str">
-        <f>CONCATENATE(F667,"_",D667,"_",G667,"_",I667)</f>
+        <f t="shared" si="13"/>
         <v>L1_F3_E_M</v>
       </c>
       <c r="B667" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C667" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L1_F3_E</v>
       </c>
       <c r="D667" s="4" t="s">
@@ -28661,14 +28519,14 @@
     </row>
     <row r="668" spans="1:25" ht="16">
       <c r="A668" s="4" t="str">
-        <f>CONCATENATE(F668,"_",D668,"_",G668,"_",I668)</f>
+        <f t="shared" si="13"/>
         <v>L1_F3_E_F</v>
       </c>
       <c r="B668" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C668" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L1_F3_E</v>
       </c>
       <c r="D668" s="4" t="s">
@@ -28705,14 +28563,14 @@
     </row>
     <row r="669" spans="1:25" ht="16">
       <c r="A669" s="4" t="str">
-        <f>CONCATENATE(F669,"_",D669,"_",G669,"_",I669)</f>
+        <f t="shared" si="13"/>
         <v>L2_F3_C_M</v>
       </c>
       <c r="B669" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C669" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L2_F3_C</v>
       </c>
       <c r="D669" s="4" t="s">
@@ -28749,14 +28607,14 @@
     </row>
     <row r="670" spans="1:25" ht="16">
       <c r="A670" s="4" t="str">
-        <f>CONCATENATE(F670,"_",D670,"_",G670,"_",I670)</f>
+        <f t="shared" si="13"/>
         <v>L2_F3_C_F</v>
       </c>
       <c r="B670" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C670" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L2_F3_C</v>
       </c>
       <c r="D670" s="4" t="s">
@@ -28793,14 +28651,14 @@
     </row>
     <row r="671" spans="1:25" ht="16">
       <c r="A671" s="4" t="str">
-        <f>CONCATENATE(F671,"_",D671,"_",G671,"_",I671)</f>
+        <f t="shared" si="13"/>
         <v>L2_F3_E_M</v>
       </c>
       <c r="B671" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C671" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L2_F3_E</v>
       </c>
       <c r="D671" s="4" t="s">
@@ -28837,14 +28695,14 @@
     </row>
     <row r="672" spans="1:25" ht="16">
       <c r="A672" s="4" t="str">
-        <f>CONCATENATE(F672,"_",D672,"_",G672,"_",I672)</f>
+        <f t="shared" si="13"/>
         <v>L2_F3_E_F</v>
       </c>
       <c r="B672" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C672" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L2_F3_E</v>
       </c>
       <c r="D672" s="4" t="s">
@@ -28881,14 +28739,14 @@
     </row>
     <row r="673" spans="1:25" ht="16">
       <c r="A673" s="4" t="str">
-        <f>CONCATENATE(F673,"_",D673,"_",G673,"_",I673)</f>
+        <f t="shared" si="13"/>
         <v>L3_F3_C_M</v>
       </c>
       <c r="B673" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C673" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L3_F3_C</v>
       </c>
       <c r="D673" s="4" t="s">
@@ -28925,14 +28783,14 @@
     </row>
     <row r="674" spans="1:25" ht="16">
       <c r="A674" s="4" t="str">
-        <f>CONCATENATE(F674,"_",D674,"_",G674,"_",I674)</f>
+        <f t="shared" si="13"/>
         <v>L3_F3_C_F</v>
       </c>
       <c r="B674" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C674" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L3_F3_C</v>
       </c>
       <c r="D674" s="4" t="s">
@@ -28969,14 +28827,14 @@
     </row>
     <row r="675" spans="1:25" ht="16">
       <c r="A675" s="4" t="str">
-        <f>CONCATENATE(F675,"_",D675,"_",G675,"_",I675)</f>
+        <f t="shared" si="13"/>
         <v>L3_F3_E_M</v>
       </c>
       <c r="B675" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C675" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L3_F3_E</v>
       </c>
       <c r="D675" s="4" t="s">
@@ -29013,14 +28871,14 @@
     </row>
     <row r="676" spans="1:25" ht="16">
       <c r="A676" s="4" t="str">
-        <f>CONCATENATE(F676,"_",D676,"_",G676,"_",I676)</f>
+        <f t="shared" si="13"/>
         <v>L3_F3_E_F</v>
       </c>
       <c r="B676" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C676" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L3_F3_E</v>
       </c>
       <c r="D676" s="4" t="s">
@@ -29057,14 +28915,14 @@
     </row>
     <row r="677" spans="1:25" ht="16">
       <c r="A677" s="4" t="str">
-        <f>CONCATENATE(F677,"_",D677,"_",G677,"_",I677)</f>
+        <f t="shared" si="13"/>
         <v>L4_F3_C_M</v>
       </c>
       <c r="B677" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C677" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L4_F3_C</v>
       </c>
       <c r="D677" s="4" t="s">
@@ -29101,14 +28959,14 @@
     </row>
     <row r="678" spans="1:25" ht="16">
       <c r="A678" s="4" t="str">
-        <f>CONCATENATE(F678,"_",D678,"_",G678,"_",I678)</f>
+        <f t="shared" si="13"/>
         <v>L4_F3_C_F</v>
       </c>
       <c r="B678" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C678" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L4_F3_C</v>
       </c>
       <c r="D678" s="4" t="s">
@@ -29145,14 +29003,14 @@
     </row>
     <row r="679" spans="1:25" ht="16">
       <c r="A679" s="4" t="str">
-        <f>CONCATENATE(F679,"_",D679,"_",G679,"_",I679)</f>
+        <f t="shared" si="13"/>
         <v>L4_F3_E_M</v>
       </c>
       <c r="B679" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C679" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L4_F3_E</v>
       </c>
       <c r="D679" s="4" t="s">
@@ -29187,14 +29045,14 @@
     </row>
     <row r="680" spans="1:25" ht="16">
       <c r="A680" s="4" t="str">
-        <f>CONCATENATE(F680,"_",D680,"_",G680,"_",I680)</f>
+        <f t="shared" si="13"/>
         <v>L4_F3_E_F</v>
       </c>
       <c r="B680" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C680" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L4_F3_E</v>
       </c>
       <c r="D680" s="4" t="s">
@@ -29229,14 +29087,14 @@
     </row>
     <row r="681" spans="1:25" ht="16">
       <c r="A681" s="4" t="str">
-        <f>CONCATENATE(F681,"_",D681,"_",G681,"_",I681)</f>
+        <f t="shared" si="13"/>
         <v>L5_F3_C_M</v>
       </c>
       <c r="B681" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C681" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L5_F3_C</v>
       </c>
       <c r="D681" s="4" t="s">
@@ -29273,14 +29131,14 @@
     </row>
     <row r="682" spans="1:25" ht="16">
       <c r="A682" s="4" t="str">
-        <f>CONCATENATE(F682,"_",D682,"_",G682,"_",I682)</f>
+        <f t="shared" si="13"/>
         <v>L5_F3_C_F</v>
       </c>
       <c r="B682" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C682" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L5_F3_C</v>
       </c>
       <c r="D682" s="4" t="s">
@@ -29317,14 +29175,14 @@
     </row>
     <row r="683" spans="1:25" ht="16">
       <c r="A683" s="4" t="str">
-        <f>CONCATENATE(F683,"_",D683,"_",G683,"_",I683)</f>
+        <f t="shared" si="13"/>
         <v>L5_F3_E_M</v>
       </c>
       <c r="B683" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C683" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L5_F3_E</v>
       </c>
       <c r="D683" s="4" t="s">
@@ -29361,14 +29219,14 @@
     </row>
     <row r="684" spans="1:25" ht="16">
       <c r="A684" s="4" t="str">
-        <f>CONCATENATE(F684,"_",D684,"_",G684,"_",I684)</f>
+        <f t="shared" si="13"/>
         <v>L5_F3_E_F</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C684" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L5_F3_E</v>
       </c>
       <c r="D684" s="4" t="s">
@@ -29405,14 +29263,14 @@
     </row>
     <row r="685" spans="1:25" ht="16">
       <c r="A685" s="4" t="str">
-        <f>CONCATENATE(F685,"_",D685,"_",G685,"_",I685)</f>
+        <f t="shared" si="13"/>
         <v>L6_F3_C_M</v>
       </c>
       <c r="B685" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C685" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L6_F3_C</v>
       </c>
       <c r="D685" s="4" t="s">
@@ -29449,14 +29307,14 @@
     </row>
     <row r="686" spans="1:25" ht="16">
       <c r="A686" s="4" t="str">
-        <f>CONCATENATE(F686,"_",D686,"_",G686,"_",I686)</f>
+        <f t="shared" si="13"/>
         <v>L6_F3_C_F</v>
       </c>
       <c r="B686" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C686" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L6_F3_C</v>
       </c>
       <c r="D686" s="4" t="s">
@@ -29493,14 +29351,14 @@
     </row>
     <row r="687" spans="1:25" ht="16">
       <c r="A687" s="4" t="str">
-        <f>CONCATENATE(F687,"_",D687,"_",G687,"_",I687)</f>
+        <f t="shared" si="13"/>
         <v>L6_F3_E_M</v>
       </c>
       <c r="B687" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C687" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L6_F3_E</v>
       </c>
       <c r="D687" s="4" t="s">
@@ -29537,14 +29395,14 @@
     </row>
     <row r="688" spans="1:25" ht="16">
       <c r="A688" s="4" t="str">
-        <f>CONCATENATE(F688,"_",D688,"_",G688,"_",I688)</f>
+        <f t="shared" si="13"/>
         <v>L6_F3_E_F</v>
       </c>
       <c r="B688" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C688" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L6_F3_E</v>
       </c>
       <c r="D688" s="4" t="s">
@@ -29581,14 +29439,14 @@
     </row>
     <row r="689" spans="1:25" ht="16">
       <c r="A689" s="4" t="str">
-        <f>CONCATENATE(F689,"_",D689,"_",G689,"_",I689)</f>
+        <f t="shared" si="13"/>
         <v>L7_F3_C_M</v>
       </c>
       <c r="B689" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C689" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L7_F3_C</v>
       </c>
       <c r="D689" s="4" t="s">
@@ -29625,14 +29483,14 @@
     </row>
     <row r="690" spans="1:25" ht="16">
       <c r="A690" s="4" t="str">
-        <f>CONCATENATE(F690,"_",D690,"_",G690,"_",I690)</f>
+        <f t="shared" si="13"/>
         <v>L7_F3_C_F</v>
       </c>
       <c r="B690" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C690" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L7_F3_C</v>
       </c>
       <c r="D690" s="4" t="s">
@@ -29669,14 +29527,14 @@
     </row>
     <row r="691" spans="1:25" ht="16">
       <c r="A691" s="4" t="str">
-        <f>CONCATENATE(F691,"_",D691,"_",G691,"_",I691)</f>
+        <f t="shared" si="13"/>
         <v>L7_F3_E_M</v>
       </c>
       <c r="B691" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C691" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L7_F3_E</v>
       </c>
       <c r="D691" s="4" t="s">
@@ -29711,14 +29569,14 @@
     </row>
     <row r="692" spans="1:25" ht="16">
       <c r="A692" s="4" t="str">
-        <f>CONCATENATE(F692,"_",D692,"_",G692,"_",I692)</f>
+        <f t="shared" si="13"/>
         <v>L7_F3_E_F</v>
       </c>
       <c r="B692" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C692" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L7_F3_E</v>
       </c>
       <c r="D692" s="4" t="s">
@@ -29753,14 +29611,14 @@
     </row>
     <row r="693" spans="1:25" ht="16">
       <c r="A693" s="4" t="str">
-        <f>CONCATENATE(F693,"_",D693,"_",G693,"_",I693)</f>
+        <f t="shared" si="13"/>
         <v>L8_F3_C_M</v>
       </c>
       <c r="B693" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C693" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L8_F3_C</v>
       </c>
       <c r="D693" s="4" t="s">
@@ -29797,14 +29655,14 @@
     </row>
     <row r="694" spans="1:25" ht="16">
       <c r="A694" s="4" t="str">
-        <f>CONCATENATE(F694,"_",D694,"_",G694,"_",I694)</f>
+        <f t="shared" si="13"/>
         <v>L8_F3_C_F</v>
       </c>
       <c r="B694" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C694" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L8_F3_C</v>
       </c>
       <c r="D694" s="4" t="s">
@@ -29841,14 +29699,14 @@
     </row>
     <row r="695" spans="1:25" ht="16">
       <c r="A695" s="4" t="str">
-        <f>CONCATENATE(F695,"_",D695,"_",G695,"_",I695)</f>
+        <f t="shared" si="13"/>
         <v>L8_F3_E_M</v>
       </c>
       <c r="B695" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C695" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L8_F3_E</v>
       </c>
       <c r="D695" s="4" t="s">
@@ -29885,14 +29743,14 @@
     </row>
     <row r="696" spans="1:25" ht="16">
       <c r="A696" s="4" t="str">
-        <f>CONCATENATE(F696,"_",D696,"_",G696,"_",I696)</f>
+        <f t="shared" si="13"/>
         <v>L8_F3_E_F</v>
       </c>
       <c r="B696" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C696" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L8_F3_E</v>
       </c>
       <c r="D696" s="4" t="s">
@@ -29929,14 +29787,14 @@
     </row>
     <row r="697" spans="1:25" ht="16">
       <c r="A697" s="4" t="str">
-        <f>CONCATENATE(F697,"_",D697,"_",G697,"_",I697)</f>
+        <f t="shared" si="13"/>
         <v>L9_F3_C_M</v>
       </c>
       <c r="B697" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C697" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L9_F3_C</v>
       </c>
       <c r="D697" s="4" t="s">
@@ -29971,14 +29829,14 @@
     </row>
     <row r="698" spans="1:25" ht="16">
       <c r="A698" s="4" t="str">
-        <f>CONCATENATE(F698,"_",D698,"_",G698,"_",I698)</f>
+        <f t="shared" si="13"/>
         <v>L9_F3_C_F</v>
       </c>
       <c r="B698" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C698" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L9_F3_C</v>
       </c>
       <c r="D698" s="4" t="s">
@@ -30013,14 +29871,14 @@
     </row>
     <row r="699" spans="1:25" ht="16">
       <c r="A699" s="4" t="str">
-        <f>CONCATENATE(F699,"_",D699,"_",G699,"_",I699)</f>
+        <f t="shared" si="13"/>
         <v>L9_F3_E_M</v>
       </c>
       <c r="B699" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C699" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L9_F3_E</v>
       </c>
       <c r="D699" s="4" t="s">
@@ -30055,14 +29913,14 @@
     </row>
     <row r="700" spans="1:25" ht="16">
       <c r="A700" s="4" t="str">
-        <f>CONCATENATE(F700,"_",D700,"_",G700,"_",I700)</f>
+        <f t="shared" si="13"/>
         <v>L9_F3_E_F</v>
       </c>
       <c r="B700" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C700" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L9_F3_E</v>
       </c>
       <c r="D700" s="4" t="s">
@@ -30097,14 +29955,14 @@
     </row>
     <row r="701" spans="1:25" ht="16">
       <c r="A701" s="4" t="str">
-        <f>CONCATENATE(F701,"_",D701,"_",G701,"_",I701)</f>
+        <f t="shared" si="13"/>
         <v>L10_F3_C_M</v>
       </c>
       <c r="B701" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C701" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L10_F3_C</v>
       </c>
       <c r="D701" s="4" t="s">
@@ -30141,14 +29999,14 @@
     </row>
     <row r="702" spans="1:25" ht="16">
       <c r="A702" s="4" t="str">
-        <f>CONCATENATE(F702,"_",D702,"_",G702,"_",I702)</f>
+        <f t="shared" si="13"/>
         <v>L10_F3_C_F</v>
       </c>
       <c r="B702" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C702" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L10_F3_C</v>
       </c>
       <c r="D702" s="4" t="s">
@@ -30185,14 +30043,14 @@
     </row>
     <row r="703" spans="1:25" ht="16">
       <c r="A703" s="4" t="str">
-        <f>CONCATENATE(F703,"_",D703,"_",G703,"_",I703)</f>
+        <f t="shared" si="13"/>
         <v>L10_F3_E_M</v>
       </c>
       <c r="B703" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C703" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L10_F3_E</v>
       </c>
       <c r="D703" s="4" t="s">
@@ -30229,14 +30087,14 @@
     </row>
     <row r="704" spans="1:25" ht="16">
       <c r="A704" s="4" t="str">
-        <f>CONCATENATE(F704,"_",D704,"_",G704,"_",I704)</f>
+        <f t="shared" si="13"/>
         <v>L10_F3_E_F</v>
       </c>
       <c r="B704" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C704" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L10_F3_E</v>
       </c>
       <c r="D704" s="4" t="s">
@@ -30273,14 +30131,14 @@
     </row>
     <row r="705" spans="1:25" ht="16">
       <c r="A705" s="4" t="str">
-        <f>CONCATENATE(F705,"_",D705,"_",G705,"_",I705)</f>
+        <f t="shared" si="13"/>
         <v>L11_F3_C_M</v>
       </c>
       <c r="B705" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C705" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L11_F3_C</v>
       </c>
       <c r="D705" s="4" t="s">
@@ -30317,14 +30175,14 @@
     </row>
     <row r="706" spans="1:25" ht="16">
       <c r="A706" s="4" t="str">
-        <f>CONCATENATE(F706,"_",D706,"_",G706,"_",I706)</f>
+        <f t="shared" si="13"/>
         <v>L11_F3_C_F</v>
       </c>
       <c r="B706" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C706" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L11_F3_C</v>
       </c>
       <c r="D706" s="4" t="s">
@@ -30361,14 +30219,14 @@
     </row>
     <row r="707" spans="1:25" ht="16">
       <c r="A707" s="4" t="str">
-        <f>CONCATENATE(F707,"_",D707,"_",G707,"_",I707)</f>
+        <f t="shared" si="13"/>
         <v>L11_F3_E_M</v>
       </c>
       <c r="B707" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C707" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L11_F3_E</v>
       </c>
       <c r="D707" s="4" t="s">
@@ -30403,14 +30261,14 @@
     </row>
     <row r="708" spans="1:25" ht="16">
       <c r="A708" s="4" t="str">
-        <f>CONCATENATE(F708,"_",D708,"_",G708,"_",I708)</f>
+        <f t="shared" si="13"/>
         <v>L11_F3_E_F</v>
       </c>
       <c r="B708" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C708" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L11_F3_E</v>
       </c>
       <c r="D708" s="4" t="s">
@@ -30445,14 +30303,14 @@
     </row>
     <row r="709" spans="1:25" ht="16">
       <c r="A709" s="4" t="str">
-        <f>CONCATENATE(F709,"_",D709,"_",G709,"_",I709)</f>
+        <f t="shared" si="13"/>
         <v>L12_F3_C_M</v>
       </c>
       <c r="B709" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C709" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L12_F3_C</v>
       </c>
       <c r="D709" s="4" t="s">
@@ -30487,14 +30345,14 @@
     </row>
     <row r="710" spans="1:25" ht="16">
       <c r="A710" s="4" t="str">
-        <f>CONCATENATE(F710,"_",D710,"_",G710,"_",I710)</f>
+        <f t="shared" si="13"/>
         <v>L12_F3_C_F</v>
       </c>
       <c r="B710" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C710" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L12_F3_C</v>
       </c>
       <c r="D710" s="4" t="s">
@@ -30529,14 +30387,14 @@
     </row>
     <row r="711" spans="1:25" ht="16">
       <c r="A711" s="4" t="str">
-        <f>CONCATENATE(F711,"_",D711,"_",G711,"_",I711)</f>
+        <f t="shared" si="13"/>
         <v>L12_F3_E_M</v>
       </c>
       <c r="B711" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C711" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L12_F3_E</v>
       </c>
       <c r="D711" s="4" t="s">
@@ -30571,14 +30429,14 @@
     </row>
     <row r="712" spans="1:25" ht="16">
       <c r="A712" s="4" t="str">
-        <f>CONCATENATE(F712,"_",D712,"_",G712,"_",I712)</f>
+        <f t="shared" si="13"/>
         <v>L12_F3_E_F</v>
       </c>
       <c r="B712" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C712" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>L12_F3_E</v>
       </c>
       <c r="D712" s="4" t="s">
